--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_20_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344493.6956176804</v>
+        <v>234350.6181846516</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>17365320.46704034</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19218381.60424015</v>
+        <v>19063904.63729866</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3699158.381613054</v>
+        <v>3788427.590140078</v>
       </c>
     </row>
     <row r="11">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31.40680827111669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.45844320953879</v>
+        <v>1.501708169028659</v>
       </c>
       <c r="J5" t="n">
-        <v>37.07997558653193</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.93181073045758</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.56572049933791</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40.45844320953879</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.45844320953879</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>37.52851948916263</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>35.63579677896173</v>
       </c>
     </row>
     <row r="7">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>66.31567095874617</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>75.29027129739586</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>75.29027129739586</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>75.29027129739586</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="W8" t="n">
-        <v>66.31567095874624</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="F9" t="n">
-        <v>75.29027129739586</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>53.32821082554061</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.50093147357371</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11.6534752673809</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>75.29027129739586</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>60.77679995702776</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>54.66219569136523</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>134.2026864555767</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="H11" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>134.2026864555766</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.4672394069155</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>134.2026864555767</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="V12" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="W12" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="X12" t="n">
-        <v>152.3645395726349</v>
+        <v>0.7354470486610872</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.96570454282973</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.45975178889817</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>42.42545633172772</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>134.2026864555766</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>129.7468299184474</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>102.0228116873166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.62889670103931</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>144.5332272940434</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>18.09797540883102</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.4826861415321</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.68110828409158</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>47.85995410957435</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.49561708903498</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>48.45877847893789</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.42545633172809</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.42545633172783</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>134.2026864555766</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="D17" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>102.0228116873166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>32.17987476826023</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
     </row>
     <row r="18">
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>126.4826861415321</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>89.68110828409156</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47.85995410957435</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.49561708903495</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>149.1169753885216</v>
       </c>
       <c r="V18" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>29.06553990698935</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>42.42545633172783</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.42545633172796</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>134.2026864555766</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.62889670103935</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>144.5332272940434</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="U20" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>79.40510203312891</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.4826861415321</v>
+        <v>34.66741548461647</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.7200003140447</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.4672394069154</v>
       </c>
       <c r="T21" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="X21" t="n">
-        <v>152.3645395726349</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>42.42545633172791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>42.42545633172783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>135.2794960741431</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>135.2794960741433</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="U23" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.4251932862221</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="V24" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="W24" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>133.7489256547717</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3237323685491406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>43.54108093660844</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.54108093660849</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>135.2794960741432</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="Y26" t="n">
-        <v>135.2794960741431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.61854608738376</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>12.28175274762867</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="W27" t="n">
-        <v>133.7489256547717</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="X27" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>86.84862681975886</v>
       </c>
     </row>
     <row r="28">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>43.54108093660848</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>14.48290695036998</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.05817398623845</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>153.5870754701897</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>153.5870754701897</v>
       </c>
       <c r="H29" t="n">
-        <v>124.6437269515884</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>101.8597064751056</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>62.3631381176388</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>135.2794960741431</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>126.4804225015042</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>89.65924628698016</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>12.28175274762867</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>121.467172907143</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>153.5870754701897</v>
       </c>
-      <c r="U30" t="n">
-        <v>91.43654773704242</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.54108093660844</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>43.54108093660849</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>62.3631381176388</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>135.2794960741432</v>
+        <v>72.9163579565043</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>24.5682360421392</v>
       </c>
       <c r="U33" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>133.7489256547713</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>43.54108093660844</v>
+        <v>43.54108093660849</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>62.3631381176388</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>153.5870754701899</v>
+        <v>72.91635795650441</v>
       </c>
       <c r="W35" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>135.2794960741432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>47.78201738054415</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.28175274762867</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>73.68515552659845</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>153.5870754701899</v>
+        <v>8.431411211639482</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43.54108093660844</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>43.54108093660848</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>153.5870754701899</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>135.2794960741433</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>153.5870754701899</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.2794960741432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>133.7489256547713</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>153.5870754701899</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>153.5870754701899</v>
+        <v>24.56823604213909</v>
       </c>
       <c r="Y39" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.54108093660844</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.54108093660849</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>135.2794960741433</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>135.2794960741431</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="U42" t="n">
-        <v>133.7489256547711</v>
+        <v>133.7489256547718</v>
       </c>
       <c r="V42" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>43.54108093660849</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>43.54108093660847</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="F44" t="n">
-        <v>135.2794960741433</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>135.2794960741431</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>133.7489256547718</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.4251932862221</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="V45" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>153.5870754701899</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.3237323685490263</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>153.5870754701897</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.54108093660849</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>43.54108093660847</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.3548954543843</v>
+        <v>86.48778110131479</v>
       </c>
       <c r="C5" t="n">
-        <v>127.3548954543843</v>
+        <v>45.62066674824534</v>
       </c>
       <c r="D5" t="n">
-        <v>127.3548954543843</v>
+        <v>45.62066674824534</v>
       </c>
       <c r="E5" t="n">
-        <v>127.3548954543843</v>
+        <v>4.753552395175888</v>
       </c>
       <c r="F5" t="n">
-        <v>127.3548954543843</v>
+        <v>4.753552395175888</v>
       </c>
       <c r="G5" t="n">
-        <v>127.3548954543843</v>
+        <v>4.753552395175888</v>
       </c>
       <c r="H5" t="n">
-        <v>95.63084669568059</v>
+        <v>4.753552395175888</v>
       </c>
       <c r="I5" t="n">
-        <v>54.76373234261111</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="J5" t="n">
-        <v>17.3092115481344</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="K5" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="L5" t="n">
-        <v>16.10855025169222</v>
+        <v>16.10855025169221</v>
       </c>
       <c r="M5" t="n">
-        <v>56.16240902913562</v>
+        <v>56.16240902913558</v>
       </c>
       <c r="N5" t="n">
-        <v>96.21626780657901</v>
+        <v>96.21626780657894</v>
       </c>
       <c r="O5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="P5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="Q5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="R5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="S5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="T5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="U5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="V5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="W5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="X5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
       <c r="Y5" t="n">
-        <v>127.3548954543843</v>
+        <v>127.3548954543842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="C6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="D6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="E6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="F6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="G6" t="n">
-        <v>122.8784996065007</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="H6" t="n">
-        <v>82.0113852534312</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="I6" t="n">
-        <v>41.14427090036173</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="J6" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="K6" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="L6" t="n">
         <v>40.87374014532591</v>
       </c>
       <c r="M6" t="n">
-        <v>80.92759892276931</v>
+        <v>80.92759892276928</v>
       </c>
       <c r="N6" t="n">
-        <v>98.4287482707893</v>
+        <v>120.9814577002126</v>
       </c>
       <c r="O6" t="n">
-        <v>138.4826070482327</v>
+        <v>161.035316477656</v>
       </c>
       <c r="P6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="R6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="S6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="T6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="U6" t="n">
-        <v>161.8337728381551</v>
+        <v>161.833772838155</v>
       </c>
       <c r="V6" t="n">
-        <v>161.8337728381551</v>
+        <v>120.9666584850856</v>
       </c>
       <c r="W6" t="n">
-        <v>161.8337728381551</v>
+        <v>80.09954413201612</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8337728381551</v>
+        <v>39.23242977894667</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.8337728381551</v>
+        <v>3.236675456763101</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="C7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="D7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="E7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="F7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="G7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="H7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="I7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="J7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="K7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="L7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="M7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="N7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="O7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="P7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="R7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="S7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="T7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="U7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="V7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="W7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="X7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.236675456763103</v>
+        <v>3.236675456763101</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="D8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="E8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="F8" t="n">
-        <v>6.023221703791669</v>
+        <v>82.07400079207017</v>
       </c>
       <c r="G8" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="H8" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="I8" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="J8" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="K8" t="n">
-        <v>17.21165358917445</v>
+        <v>17.21165358917438</v>
       </c>
       <c r="L8" t="n">
-        <v>61.07457420139085</v>
+        <v>61.07457420139067</v>
       </c>
       <c r="M8" t="n">
-        <v>135.6119427858127</v>
+        <v>135.6119427858125</v>
       </c>
       <c r="N8" t="n">
-        <v>210.1493113702346</v>
+        <v>210.1493113702342</v>
       </c>
       <c r="O8" t="n">
-        <v>274.3766234655311</v>
+        <v>274.3766234655306</v>
       </c>
       <c r="P8" t="n">
-        <v>301.1610851895834</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="Q8" t="n">
-        <v>301.1610851895834</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="R8" t="n">
-        <v>301.1610851895834</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="S8" t="n">
-        <v>301.1610851895834</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="T8" t="n">
-        <v>225.1103061013048</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="U8" t="n">
-        <v>149.0595270130261</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="V8" t="n">
-        <v>73.00874792474747</v>
+        <v>225.1103061013044</v>
       </c>
       <c r="W8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="X8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.023221703791669</v>
+        <v>149.0595270130259</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.719599074004</v>
+        <v>158.1247798803487</v>
       </c>
       <c r="C9" t="n">
-        <v>163.719599074004</v>
+        <v>82.07400079207017</v>
       </c>
       <c r="D9" t="n">
-        <v>163.719599074004</v>
+        <v>82.07400079207017</v>
       </c>
       <c r="E9" t="n">
-        <v>163.719599074004</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="F9" t="n">
-        <v>87.66881998572534</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="G9" t="n">
-        <v>87.66881998572534</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="H9" t="n">
-        <v>87.66881998572534</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="I9" t="n">
-        <v>33.80194036396714</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="J9" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="K9" t="n">
-        <v>22.9905793422596</v>
+        <v>22.99057934225954</v>
       </c>
       <c r="L9" t="n">
-        <v>35.00366289861236</v>
+        <v>83.44235027772875</v>
       </c>
       <c r="M9" t="n">
-        <v>109.5410314830343</v>
+        <v>157.9797188621505</v>
       </c>
       <c r="N9" t="n">
-        <v>184.0784000674562</v>
+        <v>227.494340740275</v>
       </c>
       <c r="O9" t="n">
-        <v>257.7451445167641</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="P9" t="n">
-        <v>301.1610851895834</v>
+        <v>301.1610851895829</v>
       </c>
       <c r="Q9" t="n">
-        <v>301.1610851895834</v>
+        <v>289.3898980508143</v>
       </c>
       <c r="R9" t="n">
-        <v>301.1610851895834</v>
+        <v>289.3898980508143</v>
       </c>
       <c r="S9" t="n">
-        <v>225.1103061013048</v>
+        <v>289.3898980508143</v>
       </c>
       <c r="T9" t="n">
-        <v>163.719599074004</v>
+        <v>289.3898980508143</v>
       </c>
       <c r="U9" t="n">
-        <v>163.719599074004</v>
+        <v>213.3391189625358</v>
       </c>
       <c r="V9" t="n">
-        <v>163.719599074004</v>
+        <v>158.1247798803487</v>
       </c>
       <c r="W9" t="n">
-        <v>163.719599074004</v>
+        <v>158.1247798803487</v>
       </c>
       <c r="X9" t="n">
-        <v>163.719599074004</v>
+        <v>158.1247798803487</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.719599074004</v>
+        <v>158.1247798803487</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="C10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="D10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="E10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="F10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="G10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="H10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="I10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="J10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="K10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="L10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="M10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="N10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="O10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="P10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="R10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="S10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="T10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="U10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="V10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="W10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="X10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.023221703791669</v>
+        <v>6.023221703791657</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="C11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="D11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="E11" t="n">
-        <v>473.8998891434923</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="F11" t="n">
-        <v>319.9963138175984</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="G11" t="n">
-        <v>166.0927384917046</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H11" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I11" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J11" t="n">
-        <v>17.08989068051289</v>
+        <v>17.08989068051255</v>
       </c>
       <c r="K11" t="n">
-        <v>65.65985691735403</v>
+        <v>65.65985691735386</v>
       </c>
       <c r="L11" t="n">
-        <v>155.8978763939338</v>
+        <v>155.8978763939335</v>
       </c>
       <c r="M11" t="n">
-        <v>282.0364779898861</v>
+        <v>282.036477989886</v>
       </c>
       <c r="N11" t="n">
-        <v>413.9648533413108</v>
+        <v>413.9648533413105</v>
       </c>
       <c r="O11" t="n">
-        <v>527.7061773738283</v>
+        <v>527.7061773738278</v>
       </c>
       <c r="P11" t="n">
-        <v>596.7497027391462</v>
+        <v>596.7497027391457</v>
       </c>
       <c r="Q11" t="n">
-        <v>609.4581582905395</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="R11" t="n">
-        <v>609.4581582905395</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="S11" t="n">
-        <v>609.4581582905395</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="T11" t="n">
-        <v>609.4581582905395</v>
+        <v>473.8998891434917</v>
       </c>
       <c r="U11" t="n">
-        <v>609.4581582905395</v>
+        <v>319.9963138175981</v>
       </c>
       <c r="V11" t="n">
-        <v>609.4581582905395</v>
+        <v>319.9963138175981</v>
       </c>
       <c r="W11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="X11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="Y11" t="n">
-        <v>609.4581582905395</v>
+        <v>166.0927384917044</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="C12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="D12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K12" t="n">
-        <v>54.54652837582175</v>
+        <v>54.54652837582164</v>
       </c>
       <c r="L12" t="n">
-        <v>149.1382978127777</v>
+        <v>149.1382978127775</v>
       </c>
       <c r="M12" t="n">
-        <v>275.2498865301447</v>
+        <v>275.2498865301443</v>
       </c>
       <c r="N12" t="n">
-        <v>416.4062977381612</v>
+        <v>416.4062977381607</v>
       </c>
       <c r="O12" t="n">
-        <v>527.4832532512031</v>
+        <v>527.4832532512025</v>
       </c>
       <c r="P12" t="n">
-        <v>600.9241864451361</v>
+        <v>600.9241864451354</v>
       </c>
       <c r="Q12" t="n">
-        <v>609.4581582905395</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="R12" t="n">
-        <v>609.4581582905395</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="S12" t="n">
-        <v>609.4581582905395</v>
+        <v>474.6427649502201</v>
       </c>
       <c r="T12" t="n">
-        <v>609.4581582905395</v>
+        <v>474.6427649502201</v>
       </c>
       <c r="U12" t="n">
-        <v>473.8998891434923</v>
+        <v>320.7391896243265</v>
       </c>
       <c r="V12" t="n">
-        <v>319.9963138175984</v>
+        <v>166.8356142984328</v>
       </c>
       <c r="W12" t="n">
-        <v>166.0927384917046</v>
+        <v>12.93203897253915</v>
       </c>
       <c r="X12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="C13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="D13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J13" t="n">
-        <v>23.76467002328369</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K13" t="n">
-        <v>12.18916316581079</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="L13" t="n">
-        <v>21.96973233187016</v>
+        <v>21.9697323318701</v>
       </c>
       <c r="M13" t="n">
-        <v>34.92932612951203</v>
+        <v>34.92932612951194</v>
       </c>
       <c r="N13" t="n">
-        <v>53.96500955134516</v>
+        <v>53.96500955134501</v>
       </c>
       <c r="O13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="P13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="R13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="S13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="T13" t="n">
-        <v>55.04315946048544</v>
+        <v>55.04315946048525</v>
       </c>
       <c r="U13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="V13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="W13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="X13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.04315946048544</v>
+        <v>12.18916316581078</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="C14" t="n">
-        <v>400.203487588436</v>
+        <v>319.9963138175981</v>
       </c>
       <c r="D14" t="n">
-        <v>400.203487588436</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="E14" t="n">
-        <v>400.203487588436</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F14" t="n">
-        <v>400.203487588436</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G14" t="n">
-        <v>269.1460836304083</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H14" t="n">
-        <v>115.2425083045144</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I14" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J14" t="n">
-        <v>17.08989068051282</v>
+        <v>17.08989068051267</v>
       </c>
       <c r="K14" t="n">
-        <v>65.65985691735399</v>
+        <v>65.65985691735375</v>
       </c>
       <c r="L14" t="n">
-        <v>155.8978763939337</v>
+        <v>155.8978763939335</v>
       </c>
       <c r="M14" t="n">
-        <v>282.0364779898864</v>
+        <v>282.036477989886</v>
       </c>
       <c r="N14" t="n">
-        <v>413.9648533413109</v>
+        <v>413.9648533413103</v>
       </c>
       <c r="O14" t="n">
-        <v>527.7061773738285</v>
+        <v>527.7061773738278</v>
       </c>
       <c r="P14" t="n">
-        <v>596.7497027391465</v>
+        <v>596.7497027391457</v>
       </c>
       <c r="Q14" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="R14" t="n">
-        <v>546.1966464713081</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="S14" t="n">
-        <v>400.203487588436</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="T14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="U14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="V14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="W14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="X14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="Y14" t="n">
-        <v>400.203487588436</v>
+        <v>455.5545829646451</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.5098972007038</v>
+        <v>455.5545829646455</v>
       </c>
       <c r="C15" t="n">
-        <v>560.5098972007038</v>
+        <v>455.5545829646455</v>
       </c>
       <c r="D15" t="n">
-        <v>421.6712601909158</v>
+        <v>316.7159459548575</v>
       </c>
       <c r="E15" t="n">
-        <v>274.643250247787</v>
+        <v>298.4351627136141</v>
       </c>
       <c r="F15" t="n">
-        <v>139.9494521976614</v>
+        <v>163.7413646634885</v>
       </c>
       <c r="G15" t="n">
-        <v>12.1891631658108</v>
+        <v>163.7413646634885</v>
       </c>
       <c r="H15" t="n">
-        <v>12.1891631658108</v>
+        <v>73.1543865987495</v>
       </c>
       <c r="I15" t="n">
-        <v>12.1891631658108</v>
+        <v>24.81099860928045</v>
       </c>
       <c r="J15" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K15" t="n">
-        <v>54.54652837582177</v>
+        <v>54.54652837582167</v>
       </c>
       <c r="L15" t="n">
-        <v>149.1382978127778</v>
+        <v>149.1382978127776</v>
       </c>
       <c r="M15" t="n">
-        <v>275.249886530145</v>
+        <v>275.2498865301446</v>
       </c>
       <c r="N15" t="n">
-        <v>416.4062977381616</v>
+        <v>416.4062977381611</v>
       </c>
       <c r="O15" t="n">
-        <v>527.4832532512036</v>
+        <v>527.4832532512029</v>
       </c>
       <c r="P15" t="n">
-        <v>600.9241864451366</v>
+        <v>600.9241864451358</v>
       </c>
       <c r="Q15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="R15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="S15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="T15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="U15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="V15" t="n">
-        <v>609.45815829054</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="W15" t="n">
-        <v>560.5098972007038</v>
+        <v>455.5545829646455</v>
       </c>
       <c r="X15" t="n">
-        <v>560.5098972007038</v>
+        <v>455.5545829646455</v>
       </c>
       <c r="Y15" t="n">
-        <v>560.5098972007038</v>
+        <v>455.5545829646455</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K16" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="L16" t="n">
-        <v>21.9697323318702</v>
+        <v>21.96973233187013</v>
       </c>
       <c r="M16" t="n">
-        <v>34.92932612951214</v>
+        <v>34.92932612951199</v>
       </c>
       <c r="N16" t="n">
-        <v>53.96500955134532</v>
+        <v>53.96500955134509</v>
       </c>
       <c r="O16" t="n">
-        <v>55.04315946048564</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="P16" t="n">
-        <v>55.04315946048564</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.04315946048564</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="R16" t="n">
-        <v>55.04315946048564</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="S16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="T16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="U16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="V16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="W16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="X16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.04315946048564</v>
+        <v>12.18916316581078</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>423.0496589563022</v>
+        <v>166.0927384917044</v>
       </c>
       <c r="C17" t="n">
-        <v>423.0496589563022</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="D17" t="n">
-        <v>269.1460836304083</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E17" t="n">
-        <v>269.1460836304083</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F17" t="n">
-        <v>269.1460836304083</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1460836304083</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H17" t="n">
-        <v>115.2425083045144</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I17" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J17" t="n">
         <v>17.08989068051267</v>
       </c>
       <c r="K17" t="n">
-        <v>65.65985691735364</v>
+        <v>65.65985691735375</v>
       </c>
       <c r="L17" t="n">
-        <v>155.8978763939333</v>
+        <v>155.8978763939335</v>
       </c>
       <c r="M17" t="n">
         <v>282.036477989886</v>
       </c>
       <c r="N17" t="n">
-        <v>413.9648533413107</v>
+        <v>413.9648533413103</v>
       </c>
       <c r="O17" t="n">
-        <v>527.7061773738283</v>
+        <v>527.7061773738278</v>
       </c>
       <c r="P17" t="n">
-        <v>596.7497027391465</v>
+        <v>596.7497027391457</v>
       </c>
       <c r="Q17" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="R17" t="n">
-        <v>576.953234282196</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="S17" t="n">
-        <v>576.953234282196</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="T17" t="n">
-        <v>576.953234282196</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="U17" t="n">
-        <v>576.953234282196</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="V17" t="n">
-        <v>423.0496589563022</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="W17" t="n">
-        <v>423.0496589563022</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="X17" t="n">
-        <v>423.0496589563022</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="Y17" t="n">
-        <v>423.0496589563022</v>
+        <v>301.6510076387515</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>426.1954517454647</v>
+        <v>151.0278001755987</v>
       </c>
       <c r="C18" t="n">
-        <v>426.1954517454647</v>
+        <v>151.0278001755987</v>
       </c>
       <c r="D18" t="n">
-        <v>426.1954517454647</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E18" t="n">
-        <v>426.1954517454647</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F18" t="n">
-        <v>291.501653695339</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G18" t="n">
-        <v>163.7413646634884</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H18" t="n">
-        <v>73.15438659874948</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I18" t="n">
-        <v>24.81099860928044</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J18" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K18" t="n">
-        <v>54.54652837582174</v>
+        <v>54.54652837582167</v>
       </c>
       <c r="L18" t="n">
-        <v>149.1382978127777</v>
+        <v>149.1382978127776</v>
       </c>
       <c r="M18" t="n">
-        <v>275.2498865301447</v>
+        <v>275.2498865301446</v>
       </c>
       <c r="N18" t="n">
-        <v>416.4062977381613</v>
+        <v>416.4062977381611</v>
       </c>
       <c r="O18" t="n">
-        <v>527.4832532512032</v>
+        <v>527.4832532512029</v>
       </c>
       <c r="P18" t="n">
-        <v>600.9241864451362</v>
+        <v>600.9241864451358</v>
       </c>
       <c r="Q18" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="R18" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="S18" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="T18" t="n">
-        <v>609.4581582905397</v>
+        <v>455.5545829646455</v>
       </c>
       <c r="U18" t="n">
-        <v>609.4581582905397</v>
+        <v>304.9313755014924</v>
       </c>
       <c r="V18" t="n">
-        <v>455.5545829646458</v>
+        <v>304.9313755014924</v>
       </c>
       <c r="W18" t="n">
-        <v>426.1954517454647</v>
+        <v>304.9313755014924</v>
       </c>
       <c r="X18" t="n">
-        <v>426.1954517454647</v>
+        <v>151.0278001755987</v>
       </c>
       <c r="Y18" t="n">
-        <v>426.1954517454647</v>
+        <v>151.0278001755987</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="C19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="E19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="F19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K19" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="L19" t="n">
-        <v>21.96973233187018</v>
+        <v>21.96973233187013</v>
       </c>
       <c r="M19" t="n">
-        <v>34.92932612951207</v>
+        <v>34.92932612951199</v>
       </c>
       <c r="N19" t="n">
-        <v>53.96500955134522</v>
+        <v>53.96500955134509</v>
       </c>
       <c r="O19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="P19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="R19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="S19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="T19" t="n">
-        <v>55.04315946048551</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="U19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="V19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="W19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="X19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.1891631658108</v>
+        <v>55.04315946048536</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.1891631658108</v>
+        <v>301.6510076387515</v>
       </c>
       <c r="C20" t="n">
-        <v>12.1891631658108</v>
+        <v>147.7474323128578</v>
       </c>
       <c r="D20" t="n">
-        <v>12.1891631658108</v>
+        <v>147.7474323128578</v>
       </c>
       <c r="E20" t="n">
-        <v>12.1891631658108</v>
+        <v>147.7474323128578</v>
       </c>
       <c r="F20" t="n">
-        <v>12.1891631658108</v>
+        <v>147.7474323128578</v>
       </c>
       <c r="G20" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H20" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I20" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J20" t="n">
-        <v>17.08989068051278</v>
+        <v>17.08989068051275</v>
       </c>
       <c r="K20" t="n">
-        <v>65.65985691735432</v>
+        <v>65.65985691735381</v>
       </c>
       <c r="L20" t="n">
-        <v>155.8978763939342</v>
+        <v>155.8978763939333</v>
       </c>
       <c r="M20" t="n">
-        <v>282.0364779898865</v>
+        <v>282.0364779898858</v>
       </c>
       <c r="N20" t="n">
-        <v>413.9648533413113</v>
+        <v>413.9648533413105</v>
       </c>
       <c r="O20" t="n">
-        <v>527.7061773738287</v>
+        <v>527.7061773738279</v>
       </c>
       <c r="P20" t="n">
-        <v>596.7497027391466</v>
+        <v>596.7497027391457</v>
       </c>
       <c r="Q20" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="R20" t="n">
-        <v>546.196646471308</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="S20" t="n">
-        <v>400.2034875884358</v>
+        <v>609.4581582905388</v>
       </c>
       <c r="T20" t="n">
-        <v>400.2034875884358</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="U20" t="n">
-        <v>246.299912262542</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="V20" t="n">
-        <v>92.39633693664808</v>
+        <v>455.5545829646451</v>
       </c>
       <c r="W20" t="n">
-        <v>12.1891631658108</v>
+        <v>301.6510076387515</v>
       </c>
       <c r="X20" t="n">
-        <v>12.1891631658108</v>
+        <v>301.6510076387515</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.1891631658108</v>
+        <v>301.6510076387515</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>147.7474323128581</v>
+        <v>320.7391896243269</v>
       </c>
       <c r="C21" t="n">
-        <v>147.7474323128581</v>
+        <v>320.7391896243269</v>
       </c>
       <c r="D21" t="n">
-        <v>147.7474323128581</v>
+        <v>181.9005526145389</v>
       </c>
       <c r="E21" t="n">
-        <v>147.7474323128581</v>
+        <v>181.9005526145389</v>
       </c>
       <c r="F21" t="n">
-        <v>147.7474323128581</v>
+        <v>47.20675456441327</v>
       </c>
       <c r="G21" t="n">
-        <v>19.98714328100746</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H21" t="n">
-        <v>19.98714328100746</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I21" t="n">
-        <v>19.98714328100746</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J21" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K21" t="n">
-        <v>54.54652837582171</v>
+        <v>54.54652837582167</v>
       </c>
       <c r="L21" t="n">
-        <v>149.1382978127777</v>
+        <v>149.1382978127776</v>
       </c>
       <c r="M21" t="n">
-        <v>275.2498865301447</v>
+        <v>275.2498865301446</v>
       </c>
       <c r="N21" t="n">
-        <v>416.4062977381614</v>
+        <v>416.4062977381611</v>
       </c>
       <c r="O21" t="n">
-        <v>527.4832532512032</v>
+        <v>527.4832532512029</v>
       </c>
       <c r="P21" t="n">
-        <v>600.9241864451362</v>
+        <v>600.9241864451358</v>
       </c>
       <c r="Q21" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="R21" t="n">
-        <v>609.4581582905397</v>
+        <v>609.4581582905391</v>
       </c>
       <c r="S21" t="n">
-        <v>609.4581582905397</v>
+        <v>474.6427649502205</v>
       </c>
       <c r="T21" t="n">
-        <v>455.5545829646458</v>
+        <v>474.6427649502205</v>
       </c>
       <c r="U21" t="n">
-        <v>455.5545829646458</v>
+        <v>474.6427649502205</v>
       </c>
       <c r="V21" t="n">
-        <v>301.6510076387519</v>
+        <v>474.6427649502205</v>
       </c>
       <c r="W21" t="n">
-        <v>301.6510076387519</v>
+        <v>320.7391896243269</v>
       </c>
       <c r="X21" t="n">
-        <v>147.7474323128581</v>
+        <v>320.7391896243269</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.7474323128581</v>
+        <v>320.7391896243269</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="C22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="D22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="E22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="F22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="G22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="H22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="I22" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="J22" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="K22" t="n">
-        <v>12.1891631658108</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="L22" t="n">
-        <v>21.96973233187016</v>
+        <v>21.96973233187013</v>
       </c>
       <c r="M22" t="n">
-        <v>34.92932612951204</v>
+        <v>34.92932612951199</v>
       </c>
       <c r="N22" t="n">
-        <v>53.96500955134518</v>
+        <v>53.96500955134509</v>
       </c>
       <c r="O22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="P22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="R22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="S22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="T22" t="n">
-        <v>55.04315946048546</v>
+        <v>55.04315946048536</v>
       </c>
       <c r="U22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="V22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="W22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="X22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.04315946048546</v>
+        <v>12.18916316581078</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.4254261085141</v>
+        <v>148.9329216680627</v>
       </c>
       <c r="C23" t="n">
-        <v>167.4254261085141</v>
+        <v>148.9329216680627</v>
       </c>
       <c r="D23" t="n">
-        <v>12.28696603761519</v>
+        <v>148.9329216680627</v>
       </c>
       <c r="E23" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F23" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G23" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H23" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I23" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J23" t="n">
-        <v>17.54318068012594</v>
+        <v>17.54318068012583</v>
       </c>
       <c r="K23" t="n">
-        <v>66.64592997102113</v>
+        <v>66.64592997102068</v>
       </c>
       <c r="L23" t="n">
-        <v>157.5449139380548</v>
+        <v>157.5449139380543</v>
       </c>
       <c r="M23" t="n">
-        <v>284.4189658838603</v>
+        <v>284.4189658838599</v>
       </c>
       <c r="N23" t="n">
-        <v>417.0946919406884</v>
+        <v>417.0946919406878</v>
       </c>
       <c r="O23" t="n">
-        <v>531.5417180519474</v>
+        <v>531.5417180519466</v>
       </c>
       <c r="P23" t="n">
-        <v>601.1875438144765</v>
+        <v>601.1875438144758</v>
       </c>
       <c r="Q23" t="n">
-        <v>614.3483018807597</v>
+        <v>614.348301880759</v>
       </c>
       <c r="R23" t="n">
-        <v>614.3483018807597</v>
+        <v>614.348301880759</v>
       </c>
       <c r="S23" t="n">
-        <v>614.3483018807597</v>
+        <v>614.348301880759</v>
       </c>
       <c r="T23" t="n">
-        <v>477.7023462503118</v>
+        <v>459.2098418098602</v>
       </c>
       <c r="U23" t="n">
-        <v>322.563886179413</v>
+        <v>459.2098418098602</v>
       </c>
       <c r="V23" t="n">
-        <v>167.4254261085141</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="W23" t="n">
-        <v>167.4254261085141</v>
+        <v>148.9329216680627</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4254261085141</v>
+        <v>148.9329216680627</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.4254261085141</v>
+        <v>148.9329216680627</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="C24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="D24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K24" t="n">
-        <v>55.00620418866785</v>
+        <v>55.00620418866784</v>
       </c>
       <c r="L24" t="n">
         <v>150.0845564527491</v>
@@ -6095,25 +6095,25 @@
         <v>612.8022711541212</v>
       </c>
       <c r="S24" t="n">
-        <v>478.0293486427857</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="T24" t="n">
-        <v>478.0293486427857</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="U24" t="n">
-        <v>322.8908885718869</v>
+        <v>457.6638110832224</v>
       </c>
       <c r="V24" t="n">
-        <v>167.752428500988</v>
+        <v>302.5253510123237</v>
       </c>
       <c r="W24" t="n">
-        <v>12.61396843008907</v>
+        <v>147.3868909414249</v>
       </c>
       <c r="X24" t="n">
-        <v>12.61396843008907</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="C25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="E25" t="n">
-        <v>570.3674120458016</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="F25" t="n">
-        <v>570.3674120458016</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="G25" t="n">
-        <v>570.3674120458016</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H25" t="n">
-        <v>570.3674120458016</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I25" t="n">
-        <v>570.3674120458016</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J25" t="n">
-        <v>570.3674120458016</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K25" t="n">
-        <v>570.3674120458016</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="L25" t="n">
-        <v>580.4273048797169</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6814063210446</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N25" t="n">
-        <v>613.0045946530537</v>
+        <v>54.92414864486729</v>
       </c>
       <c r="O25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="P25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Q25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="R25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="S25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="T25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="U25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="V25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="W25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="X25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Y25" t="n">
-        <v>614.3483018807597</v>
+        <v>56.26785587257325</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322.5638861794126</v>
+        <v>322.5638861794129</v>
       </c>
       <c r="C26" t="n">
-        <v>167.4254261085139</v>
+        <v>322.5638861794129</v>
       </c>
       <c r="D26" t="n">
-        <v>12.28696603761518</v>
+        <v>322.5638861794129</v>
       </c>
       <c r="E26" t="n">
-        <v>12.28696603761518</v>
+        <v>322.5638861794129</v>
       </c>
       <c r="F26" t="n">
-        <v>12.28696603761518</v>
+        <v>167.425426108514</v>
       </c>
       <c r="G26" t="n">
-        <v>12.28696603761518</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="H26" t="n">
-        <v>12.28696603761518</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="I26" t="n">
-        <v>12.28696603761518</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="J26" t="n">
-        <v>17.54318068012583</v>
+        <v>17.54318068012594</v>
       </c>
       <c r="K26" t="n">
-        <v>66.64592997102068</v>
+        <v>66.64592997102085</v>
       </c>
       <c r="L26" t="n">
-        <v>157.5449139380543</v>
+        <v>157.5449139380546</v>
       </c>
       <c r="M26" t="n">
-        <v>284.4189658838599</v>
+        <v>284.4189658838604</v>
       </c>
       <c r="N26" t="n">
-        <v>417.0946919406878</v>
+        <v>417.0946919406884</v>
       </c>
       <c r="O26" t="n">
-        <v>531.5417180519468</v>
+        <v>531.5417180519473</v>
       </c>
       <c r="P26" t="n">
-        <v>601.1875438144758</v>
+        <v>601.1875438144763</v>
       </c>
       <c r="Q26" t="n">
-        <v>614.348301880759</v>
+        <v>614.3483018807594</v>
       </c>
       <c r="R26" t="n">
-        <v>614.348301880759</v>
+        <v>614.3483018807594</v>
       </c>
       <c r="S26" t="n">
-        <v>614.348301880759</v>
+        <v>614.3483018807594</v>
       </c>
       <c r="T26" t="n">
-        <v>614.348301880759</v>
+        <v>614.3483018807594</v>
       </c>
       <c r="U26" t="n">
-        <v>614.348301880759</v>
+        <v>477.7023462503117</v>
       </c>
       <c r="V26" t="n">
-        <v>614.348301880759</v>
+        <v>477.7023462503117</v>
       </c>
       <c r="W26" t="n">
-        <v>614.348301880759</v>
+        <v>477.7023462503117</v>
       </c>
       <c r="X26" t="n">
-        <v>614.348301880759</v>
+        <v>322.5638861794129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.7023462503114</v>
+        <v>322.5638861794129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>167.4254261085139</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="C27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="D27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="E27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="F27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="G27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="H27" t="n">
-        <v>12.28696603761518</v>
+        <v>59.66100526490047</v>
       </c>
       <c r="I27" t="n">
-        <v>12.28696603761518</v>
+        <v>24.69277689380577</v>
       </c>
       <c r="J27" t="n">
-        <v>12.28696603761518</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="K27" t="n">
         <v>55.00620418866784</v>
@@ -6335,22 +6335,22 @@
         <v>612.8022711541212</v>
       </c>
       <c r="T27" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832223</v>
       </c>
       <c r="U27" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832223</v>
       </c>
       <c r="V27" t="n">
-        <v>612.8022711541212</v>
+        <v>302.5253510123234</v>
       </c>
       <c r="W27" t="n">
-        <v>477.7023462503114</v>
+        <v>147.3868909414246</v>
       </c>
       <c r="X27" t="n">
-        <v>322.5638861794126</v>
+        <v>147.3868909414246</v>
       </c>
       <c r="Y27" t="n">
-        <v>322.5638861794126</v>
+        <v>59.66100526490047</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="C28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="D28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="E28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="F28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="G28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="H28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="I28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="J28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="K28" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="L28" t="n">
-        <v>580.4273048797162</v>
+        <v>22.34685887153043</v>
       </c>
       <c r="M28" t="n">
-        <v>593.6814063210439</v>
+        <v>35.60096031285819</v>
       </c>
       <c r="N28" t="n">
-        <v>613.004594653053</v>
+        <v>54.92414864486729</v>
       </c>
       <c r="O28" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="P28" t="n">
-        <v>599.7191029409913</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Q28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="R28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="S28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="T28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="U28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="V28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="W28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="X28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Y28" t="n">
-        <v>570.367412045801</v>
+        <v>56.26785587257325</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="C29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="D29" t="n">
-        <v>396.2167730041645</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="E29" t="n">
-        <v>396.2167730041645</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="F29" t="n">
-        <v>396.2167730041645</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0783129332657</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1755584367118</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I29" t="n">
         <v>12.28696603761518</v>
       </c>
       <c r="J29" t="n">
-        <v>17.54318068012583</v>
+        <v>17.54318068012577</v>
       </c>
       <c r="K29" t="n">
         <v>66.64592997102068</v>
       </c>
       <c r="L29" t="n">
-        <v>157.5449139380543</v>
+        <v>157.5449139380544</v>
       </c>
       <c r="M29" t="n">
-        <v>284.4189658838596</v>
+        <v>284.4189658838599</v>
       </c>
       <c r="N29" t="n">
-        <v>417.0946919406877</v>
+        <v>417.0946919406878</v>
       </c>
       <c r="O29" t="n">
-        <v>531.5417180519465</v>
+        <v>531.5417180519466</v>
       </c>
       <c r="P29" t="n">
-        <v>601.1875438144756</v>
+        <v>601.1875438144758</v>
       </c>
       <c r="Q29" t="n">
         <v>614.348301880759</v>
       </c>
       <c r="R29" t="n">
-        <v>551.3552330750632</v>
+        <v>614.348301880759</v>
       </c>
       <c r="S29" t="n">
-        <v>551.3552330750632</v>
+        <v>614.348301880759</v>
       </c>
       <c r="T29" t="n">
-        <v>551.3552330750632</v>
+        <v>477.7023462503114</v>
       </c>
       <c r="U29" t="n">
-        <v>551.3552330750632</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="V29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="W29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="X29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="Y29" t="n">
-        <v>551.3552330750632</v>
+        <v>167.4254261085139</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>365.3036618538866</v>
+        <v>179.8312369647045</v>
       </c>
       <c r="C30" t="n">
-        <v>365.3036618538866</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="D30" t="n">
-        <v>365.3036618538866</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="E30" t="n">
-        <v>365.3036618538866</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="F30" t="n">
-        <v>230.609863803761</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="G30" t="n">
-        <v>102.8518612769891</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="H30" t="n">
-        <v>12.28696603761518</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="I30" t="n">
-        <v>12.28696603761518</v>
+        <v>24.69277689380576</v>
       </c>
       <c r="J30" t="n">
         <v>12.28696603761518</v>
@@ -6572,22 +6572,22 @@
         <v>612.8022711541212</v>
       </c>
       <c r="T30" t="n">
-        <v>457.6638110832224</v>
+        <v>490.1081571065019</v>
       </c>
       <c r="U30" t="n">
-        <v>365.3036618538866</v>
+        <v>490.1081571065019</v>
       </c>
       <c r="V30" t="n">
-        <v>365.3036618538866</v>
+        <v>490.1081571065019</v>
       </c>
       <c r="W30" t="n">
-        <v>365.3036618538866</v>
+        <v>490.1081571065019</v>
       </c>
       <c r="X30" t="n">
-        <v>365.3036618538866</v>
+        <v>334.9696970356032</v>
       </c>
       <c r="Y30" t="n">
-        <v>365.3036618538866</v>
+        <v>179.8312369647045</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="C31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="D31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K31" t="n">
-        <v>570.367412045801</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="L31" t="n">
-        <v>580.4273048797162</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M31" t="n">
-        <v>593.6814063210439</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N31" t="n">
-        <v>613.004594653053</v>
+        <v>54.92414864486729</v>
       </c>
       <c r="O31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="P31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Q31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="R31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="S31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="T31" t="n">
-        <v>614.348301880759</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="U31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="V31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="W31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="X31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="Y31" t="n">
-        <v>614.348301880759</v>
+        <v>12.28696603761518</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.425426108514</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="C32" t="n">
-        <v>167.425426108514</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="D32" t="n">
-        <v>167.425426108514</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E32" t="n">
-        <v>167.425426108514</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F32" t="n">
-        <v>167.425426108514</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G32" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H32" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I32" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J32" t="n">
         <v>17.54318068012583</v>
       </c>
       <c r="K32" t="n">
-        <v>66.64592997102068</v>
+        <v>66.64592997102073</v>
       </c>
       <c r="L32" t="n">
-        <v>157.5449139380544</v>
+        <v>157.5449139380545</v>
       </c>
       <c r="M32" t="n">
         <v>284.41896588386</v>
       </c>
       <c r="N32" t="n">
-        <v>417.094691940688</v>
+        <v>417.0946919406879</v>
       </c>
       <c r="O32" t="n">
-        <v>531.5417180519469</v>
+        <v>531.5417180519466</v>
       </c>
       <c r="P32" t="n">
-        <v>601.1875438144762</v>
+        <v>601.1875438144758</v>
       </c>
       <c r="Q32" t="n">
-        <v>614.3483018807594</v>
+        <v>614.348301880759</v>
       </c>
       <c r="R32" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="S32" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="T32" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="U32" t="n">
-        <v>459.2098418098606</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="V32" t="n">
-        <v>304.0713817389617</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="W32" t="n">
-        <v>304.0713817389617</v>
+        <v>551.3552330750632</v>
       </c>
       <c r="X32" t="n">
-        <v>167.425426108514</v>
+        <v>477.7023462503114</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.425426108514</v>
+        <v>322.5638861794126</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.28696603761519</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="C33" t="n">
-        <v>12.28696603761519</v>
+        <v>432.8474110406576</v>
       </c>
       <c r="D33" t="n">
-        <v>12.28696603761519</v>
+        <v>294.0087740308696</v>
       </c>
       <c r="E33" t="n">
-        <v>12.28696603761519</v>
+        <v>146.9807640877408</v>
       </c>
       <c r="F33" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G33" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H33" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I33" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J33" t="n">
-        <v>12.28696603761519</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K33" t="n">
         <v>55.00620418866784</v>
@@ -6809,22 +6809,22 @@
         <v>612.8022711541212</v>
       </c>
       <c r="T33" t="n">
-        <v>612.8022711541212</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="U33" t="n">
-        <v>457.6638110832223</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="V33" t="n">
-        <v>302.5253510123234</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="W33" t="n">
-        <v>147.3868909414246</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="X33" t="n">
-        <v>12.28696603761519</v>
+        <v>587.9858711115563</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.28696603761519</v>
+        <v>587.9858711115563</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="C34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="E34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="F34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K34" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="L34" t="n">
-        <v>580.4273048797166</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M34" t="n">
-        <v>593.6814063210444</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N34" t="n">
-        <v>613.0045946530535</v>
+        <v>54.92414864486729</v>
       </c>
       <c r="O34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="P34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Q34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="R34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="S34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="T34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="U34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="V34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="W34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="X34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Y34" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.28696603761519</v>
+        <v>477.7023462503115</v>
       </c>
       <c r="C35" t="n">
-        <v>12.28696603761519</v>
+        <v>322.5638861794127</v>
       </c>
       <c r="D35" t="n">
-        <v>12.28696603761519</v>
+        <v>322.5638861794127</v>
       </c>
       <c r="E35" t="n">
-        <v>12.28696603761519</v>
+        <v>167.425426108514</v>
       </c>
       <c r="F35" t="n">
-        <v>12.28696603761519</v>
+        <v>167.425426108514</v>
       </c>
       <c r="G35" t="n">
         <v>12.28696603761519</v>
@@ -6940,49 +6940,49 @@
         <v>17.54318068012584</v>
       </c>
       <c r="K35" t="n">
-        <v>66.64592997102072</v>
+        <v>66.64592997102069</v>
       </c>
       <c r="L35" t="n">
-        <v>157.5449139380545</v>
+        <v>157.5449139380544</v>
       </c>
       <c r="M35" t="n">
-        <v>284.4189658838601</v>
+        <v>284.4189658838599</v>
       </c>
       <c r="N35" t="n">
-        <v>417.0946919406881</v>
+        <v>417.0946919406879</v>
       </c>
       <c r="O35" t="n">
-        <v>531.541718051947</v>
+        <v>531.5417180519469</v>
       </c>
       <c r="P35" t="n">
         <v>601.187543814476</v>
       </c>
       <c r="Q35" t="n">
-        <v>614.3483018807594</v>
+        <v>614.3483018807592</v>
       </c>
       <c r="R35" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750634</v>
       </c>
       <c r="S35" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750634</v>
       </c>
       <c r="T35" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750634</v>
       </c>
       <c r="U35" t="n">
-        <v>614.3483018807594</v>
+        <v>551.3552330750634</v>
       </c>
       <c r="V35" t="n">
-        <v>459.2098418098606</v>
+        <v>477.7023462503115</v>
       </c>
       <c r="W35" t="n">
-        <v>304.0713817389617</v>
+        <v>477.7023462503115</v>
       </c>
       <c r="X35" t="n">
-        <v>148.9329216680628</v>
+        <v>477.7023462503115</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.28696603761519</v>
+        <v>477.7023462503115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>72.95744091455744</v>
+        <v>449.1472341017684</v>
       </c>
       <c r="C36" t="n">
-        <v>72.95744091455744</v>
+        <v>294.0087740308696</v>
       </c>
       <c r="D36" t="n">
-        <v>72.95744091455744</v>
+        <v>294.0087740308696</v>
       </c>
       <c r="E36" t="n">
-        <v>72.95744091455744</v>
+        <v>146.9807640877408</v>
       </c>
       <c r="F36" t="n">
-        <v>72.95744091455744</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="G36" t="n">
-        <v>72.95744091455744</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="H36" t="n">
-        <v>72.95744091455744</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="I36" t="n">
-        <v>24.69277689380577</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="J36" t="n">
         <v>12.28696603761519</v>
@@ -7052,16 +7052,16 @@
         <v>612.8022711541212</v>
       </c>
       <c r="V36" t="n">
-        <v>538.372821127254</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="W36" t="n">
-        <v>538.372821127254</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="X36" t="n">
-        <v>383.2343610563552</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="Y36" t="n">
-        <v>228.0959009854563</v>
+        <v>604.2856941726671</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="C37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="D37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="E37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="F37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="G37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="H37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="I37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="J37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="K37" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="L37" t="n">
-        <v>580.4273048797166</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6814063210444</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N37" t="n">
-        <v>613.0045946530535</v>
+        <v>54.92414864486729</v>
       </c>
       <c r="O37" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="P37" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="Q37" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="R37" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="S37" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257325</v>
       </c>
       <c r="T37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="U37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="V37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="W37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="X37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="Y37" t="n">
-        <v>614.3483018807594</v>
+        <v>12.28696603761519</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.425426108514</v>
+        <v>304.0713817389619</v>
       </c>
       <c r="C38" t="n">
-        <v>167.425426108514</v>
+        <v>304.0713817389619</v>
       </c>
       <c r="D38" t="n">
-        <v>167.425426108514</v>
+        <v>148.932921668063</v>
       </c>
       <c r="E38" t="n">
-        <v>167.425426108514</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="F38" t="n">
-        <v>167.425426108514</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="G38" t="n">
         <v>12.28696603761519</v>
@@ -7177,49 +7177,49 @@
         <v>17.54318068012594</v>
       </c>
       <c r="K38" t="n">
-        <v>66.64592997102069</v>
+        <v>66.64592997102113</v>
       </c>
       <c r="L38" t="n">
-        <v>157.5449139380545</v>
+        <v>157.5449139380551</v>
       </c>
       <c r="M38" t="n">
-        <v>284.4189658838601</v>
+        <v>284.4189658838606</v>
       </c>
       <c r="N38" t="n">
-        <v>417.0946919406881</v>
+        <v>417.0946919406886</v>
       </c>
       <c r="O38" t="n">
-        <v>531.541718051947</v>
+        <v>531.5417180519476</v>
       </c>
       <c r="P38" t="n">
-        <v>601.1875438144762</v>
+        <v>601.1875438144765</v>
       </c>
       <c r="Q38" t="n">
-        <v>614.3483018807594</v>
+        <v>614.3483018807597</v>
       </c>
       <c r="R38" t="n">
-        <v>614.3483018807594</v>
+        <v>614.3483018807597</v>
       </c>
       <c r="S38" t="n">
-        <v>614.3483018807594</v>
+        <v>614.3483018807597</v>
       </c>
       <c r="T38" t="n">
-        <v>614.3483018807594</v>
+        <v>459.2098418098608</v>
       </c>
       <c r="U38" t="n">
-        <v>614.3483018807594</v>
+        <v>459.2098418098608</v>
       </c>
       <c r="V38" t="n">
-        <v>614.3483018807594</v>
+        <v>304.0713817389619</v>
       </c>
       <c r="W38" t="n">
-        <v>614.3483018807594</v>
+        <v>304.0713817389619</v>
       </c>
       <c r="X38" t="n">
-        <v>459.2098418098606</v>
+        <v>304.0713817389619</v>
       </c>
       <c r="Y38" t="n">
-        <v>322.5638861794129</v>
+        <v>304.0713817389619</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.28696603761519</v>
+        <v>432.8474110406576</v>
       </c>
       <c r="C39" t="n">
-        <v>12.28696603761519</v>
+        <v>432.8474110406576</v>
       </c>
       <c r="D39" t="n">
-        <v>12.28696603761519</v>
+        <v>294.0087740308696</v>
       </c>
       <c r="E39" t="n">
-        <v>12.28696603761519</v>
+        <v>146.9807640877409</v>
       </c>
       <c r="F39" t="n">
         <v>12.28696603761519</v>
@@ -7256,7 +7256,7 @@
         <v>12.28696603761519</v>
       </c>
       <c r="K39" t="n">
-        <v>55.00620418866784</v>
+        <v>55.00620418866785</v>
       </c>
       <c r="L39" t="n">
         <v>150.0845564527491</v>
@@ -7283,22 +7283,22 @@
         <v>612.8022711541212</v>
       </c>
       <c r="T39" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832223</v>
       </c>
       <c r="U39" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832223</v>
       </c>
       <c r="V39" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832223</v>
       </c>
       <c r="W39" t="n">
         <v>457.6638110832223</v>
       </c>
       <c r="X39" t="n">
-        <v>302.5253510123234</v>
+        <v>432.8474110406576</v>
       </c>
       <c r="Y39" t="n">
-        <v>147.3868909414246</v>
+        <v>432.8474110406576</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="C40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="D40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="E40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="F40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="G40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="H40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="I40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="J40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="K40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="L40" t="n">
-        <v>580.4273048797166</v>
+        <v>22.34685887153043</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6814063210444</v>
+        <v>35.6009603128582</v>
       </c>
       <c r="N40" t="n">
-        <v>613.0045946530535</v>
+        <v>54.9241486448673</v>
       </c>
       <c r="O40" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="P40" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="Q40" t="n">
-        <v>614.3483018807594</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="R40" t="n">
-        <v>570.3674120458014</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="S40" t="n">
-        <v>570.3674120458014</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="T40" t="n">
-        <v>570.3674120458014</v>
+        <v>56.26785587257326</v>
       </c>
       <c r="U40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="V40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="W40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="X40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
       <c r="Y40" t="n">
-        <v>570.3674120458014</v>
+        <v>12.28696603761519</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.5638861794131</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="C41" t="n">
-        <v>167.4254261085141</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="D41" t="n">
-        <v>12.2869660376152</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="E41" t="n">
-        <v>12.2869660376152</v>
+        <v>148.9329216680628</v>
       </c>
       <c r="F41" t="n">
-        <v>12.2869660376152</v>
+        <v>148.9329216680628</v>
       </c>
       <c r="G41" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H41" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I41" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J41" t="n">
-        <v>17.54318068012617</v>
+        <v>17.54318068012583</v>
       </c>
       <c r="K41" t="n">
-        <v>66.64592997102113</v>
+        <v>66.64592997102073</v>
       </c>
       <c r="L41" t="n">
-        <v>157.5449139380551</v>
+        <v>157.5449139380545</v>
       </c>
       <c r="M41" t="n">
-        <v>284.4189658838606</v>
+        <v>284.41896588386</v>
       </c>
       <c r="N41" t="n">
-        <v>417.0946919406886</v>
+        <v>417.0946919406877</v>
       </c>
       <c r="O41" t="n">
-        <v>531.5417180519476</v>
+        <v>531.5417180519465</v>
       </c>
       <c r="P41" t="n">
-        <v>601.1875438144766</v>
+        <v>601.1875438144757</v>
       </c>
       <c r="Q41" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="R41" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="S41" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="T41" t="n">
-        <v>614.3483018807598</v>
+        <v>459.2098418098602</v>
       </c>
       <c r="U41" t="n">
-        <v>614.3483018807598</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="V41" t="n">
-        <v>614.3483018807598</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="W41" t="n">
-        <v>614.3483018807598</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="X41" t="n">
-        <v>459.2098418098608</v>
+        <v>304.0713817389615</v>
       </c>
       <c r="Y41" t="n">
-        <v>459.2098418098608</v>
+        <v>304.0713817389615</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>167.4254261085141</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="C42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="D42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J42" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K42" t="n">
-        <v>55.00620418866785</v>
+        <v>55.00620418866784</v>
       </c>
       <c r="L42" t="n">
         <v>150.0845564527491</v>
@@ -7520,22 +7520,22 @@
         <v>612.8022711541212</v>
       </c>
       <c r="T42" t="n">
-        <v>612.8022711541212</v>
+        <v>457.6638110832225</v>
       </c>
       <c r="U42" t="n">
-        <v>477.702346250312</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="V42" t="n">
-        <v>322.5638861794131</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="W42" t="n">
-        <v>167.4254261085141</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="X42" t="n">
-        <v>167.4254261085141</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="Y42" t="n">
-        <v>167.4254261085141</v>
+        <v>12.28696603761518</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="C43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="D43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K43" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="L43" t="n">
-        <v>22.34685887153044</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M43" t="n">
-        <v>35.6009603128582</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N43" t="n">
-        <v>54.9241486448673</v>
+        <v>54.92414864486727</v>
       </c>
       <c r="O43" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="P43" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="R43" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="S43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="T43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="U43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="V43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="W43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="X43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="Y43" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304.0713817389619</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="C44" t="n">
-        <v>304.0713817389619</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="D44" t="n">
-        <v>304.0713817389619</v>
+        <v>322.5638861794126</v>
       </c>
       <c r="E44" t="n">
-        <v>148.932921668063</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="F44" t="n">
-        <v>12.2869660376152</v>
+        <v>167.4254261085139</v>
       </c>
       <c r="G44" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H44" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I44" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J44" t="n">
-        <v>17.54318068012638</v>
+        <v>17.54318068012583</v>
       </c>
       <c r="K44" t="n">
-        <v>66.64592997102126</v>
+        <v>66.64592997102071</v>
       </c>
       <c r="L44" t="n">
-        <v>157.5449139380551</v>
+        <v>157.5449139380545</v>
       </c>
       <c r="M44" t="n">
-        <v>284.4189658838607</v>
+        <v>284.4189658838601</v>
       </c>
       <c r="N44" t="n">
-        <v>417.0946919406887</v>
+        <v>417.0946919406881</v>
       </c>
       <c r="O44" t="n">
-        <v>531.5417180519476</v>
+        <v>531.541718051947</v>
       </c>
       <c r="P44" t="n">
-        <v>601.1875438144766</v>
+        <v>601.187543814476</v>
       </c>
       <c r="Q44" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="R44" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="S44" t="n">
-        <v>614.3483018807598</v>
+        <v>614.3483018807589</v>
       </c>
       <c r="T44" t="n">
-        <v>614.3483018807598</v>
+        <v>477.7023462503113</v>
       </c>
       <c r="U44" t="n">
-        <v>614.3483018807598</v>
+        <v>477.7023462503113</v>
       </c>
       <c r="V44" t="n">
-        <v>614.3483018807598</v>
+        <v>477.7023462503113</v>
       </c>
       <c r="W44" t="n">
-        <v>614.3483018807598</v>
+        <v>477.7023462503113</v>
       </c>
       <c r="X44" t="n">
-        <v>614.3483018807598</v>
+        <v>477.7023462503113</v>
       </c>
       <c r="Y44" t="n">
-        <v>459.2098418098608</v>
+        <v>477.7023462503113</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.2869660376152</v>
+        <v>302.5253510123238</v>
       </c>
       <c r="C45" t="n">
-        <v>12.2869660376152</v>
+        <v>147.3868909414251</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2869660376152</v>
+        <v>147.3868909414251</v>
       </c>
       <c r="E45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J45" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K45" t="n">
-        <v>55.00620418866785</v>
+        <v>55.00620418866784</v>
       </c>
       <c r="L45" t="n">
         <v>150.0845564527491</v>
@@ -7754,25 +7754,25 @@
         <v>612.8022711541212</v>
       </c>
       <c r="S45" t="n">
-        <v>478.0293486427857</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="T45" t="n">
-        <v>478.0293486427857</v>
+        <v>612.8022711541212</v>
       </c>
       <c r="U45" t="n">
-        <v>322.8908885718868</v>
+        <v>457.6638110832225</v>
       </c>
       <c r="V45" t="n">
-        <v>167.7524285009879</v>
+        <v>457.6638110832225</v>
       </c>
       <c r="W45" t="n">
-        <v>12.61396843008896</v>
+        <v>457.6638110832225</v>
       </c>
       <c r="X45" t="n">
-        <v>12.2869660376152</v>
+        <v>457.6638110832225</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.2869660376152</v>
+        <v>302.5253510123238</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="C46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="D46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="E46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="F46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="G46" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="H46" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="I46" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="J46" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="K46" t="n">
-        <v>12.2869660376152</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="L46" t="n">
-        <v>22.34685887153044</v>
+        <v>22.34685887153042</v>
       </c>
       <c r="M46" t="n">
-        <v>35.6009603128582</v>
+        <v>35.60096031285818</v>
       </c>
       <c r="N46" t="n">
-        <v>54.9241486448673</v>
+        <v>54.92414864486727</v>
       </c>
       <c r="O46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="P46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="R46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="S46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="T46" t="n">
-        <v>56.26785587257326</v>
+        <v>56.26785587257324</v>
       </c>
       <c r="U46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="V46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="W46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="X46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.26785587257326</v>
+        <v>12.28696603761518</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>74.408059534285</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>66.95707890304617</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>62.62889670103937</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>62.62889670103937</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>55.80740794817279</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>62.62889670103937</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>62.3631381176388</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.71118345148287</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>55.64849644691708</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>58.71118345148287</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>58.71118345148287</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>58.71118345148287</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>62.3631381176388</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>65.5220997126454</v>
       </c>
       <c r="R2" t="n">
-        <v>108.2096977421496</v>
+        <v>22.77835190727248</v>
       </c>
       <c r="S2" t="n">
         <v>161.0683197856248</v>
@@ -22728,7 +22728,7 @@
         <v>128.3829513838347</v>
       </c>
       <c r="J4" t="n">
-        <v>69.38142423537789</v>
+        <v>25.65431051583756</v>
       </c>
       <c r="K4" t="n">
         <v>49.27561820117091</v>
@@ -22749,7 +22749,7 @@
         <v>54.07880848194932</v>
       </c>
       <c r="Q4" t="n">
-        <v>83.06264625204167</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>126.5290129463684</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>349.6446609133002</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>337.6559778709819</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>350.3794194854154</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -22801,16 +22801,16 @@
         <v>410.6466704837513</v>
       </c>
       <c r="H5" t="n">
-        <v>284.8107647890906</v>
+        <v>316.2175730602073</v>
       </c>
       <c r="I5" t="n">
-        <v>80.65589552423106</v>
+        <v>119.6126305647412</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>37.07997558653193</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.93181073045758</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22877,16 +22877,16 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>88.18192556732434</v>
+        <v>126.7476460666623</v>
       </c>
       <c r="H6" t="n">
-        <v>51.78162014094158</v>
+        <v>92.24006335048037</v>
       </c>
       <c r="I6" t="n">
-        <v>16.52403463807011</v>
+        <v>56.9824778476089</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>37.52851948916263</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>25.20172844066437</v>
       </c>
       <c r="R6" t="n">
-        <v>75.30248515489288</v>
+        <v>16.12431440017582</v>
       </c>
       <c r="S6" t="n">
         <v>138.388753805715</v>
@@ -22922,16 +22922,16 @@
         <v>216.2642149441015</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>185.6532231166106</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>198.4442668694843</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>155.4793750314446</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>154.9603163079552</v>
       </c>
     </row>
     <row r="7">
@@ -22965,7 +22965,7 @@
         <v>125.2747793219154</v>
       </c>
       <c r="J7" t="n">
-        <v>62.07421319379787</v>
+        <v>18.34709947425754</v>
       </c>
       <c r="K7" t="n">
         <v>37.26762577332052</v>
@@ -22986,7 +22986,7 @@
         <v>41.57846957270661</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.408059534285</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>121.8817883338372</v>
@@ -23032,10 +23032,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>343.6940078241852</v>
       </c>
       <c r="G8" t="n">
-        <v>410.4483016693151</v>
+        <v>335.1580303719194</v>
       </c>
       <c r="H8" t="n">
         <v>314.1860284393634</v>
@@ -23044,7 +23044,7 @@
         <v>113.4667250152212</v>
       </c>
       <c r="J8" t="n">
-        <v>20.24367042228396</v>
+        <v>20.243670422284</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.21852658718126</v>
+        <v>19.21852658718132</v>
       </c>
       <c r="R8" t="n">
-        <v>81.27525479932054</v>
+        <v>81.27525479932056</v>
       </c>
       <c r="S8" t="n">
         <v>151.2974624269044</v>
       </c>
       <c r="T8" t="n">
-        <v>140.282276973081</v>
+        <v>215.5725482704769</v>
       </c>
       <c r="U8" t="n">
-        <v>176.9266400248669</v>
+        <v>252.2169113222628</v>
       </c>
       <c r="V8" t="n">
-        <v>258.3192100656222</v>
+        <v>258.3192100656223</v>
       </c>
       <c r="W8" t="n">
-        <v>292.5939098822287</v>
+        <v>283.6193095435792</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -23102,16 +23102,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>84.79636473405913</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>70.26745854630175</v>
       </c>
       <c r="F9" t="n">
-        <v>58.05658877222854</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>126.6415093939194</v>
@@ -23120,10 +23120,10 @@
         <v>91.21500653741103</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>53.32821082554062</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>27.50093147357374</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,22 +23144,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.65347526738087</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.71270121038349</v>
+        <v>68.7127012103835</v>
       </c>
       <c r="S9" t="n">
-        <v>61.12704036329247</v>
+        <v>136.4173116606883</v>
       </c>
       <c r="T9" t="n">
-        <v>122.7980781421401</v>
+        <v>183.5748780991679</v>
       </c>
       <c r="U9" t="n">
-        <v>216.2572322682631</v>
+        <v>140.9669609708674</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>171.4494706347841</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -23202,28 +23202,28 @@
         <v>122.5988653138665</v>
       </c>
       <c r="J10" t="n">
-        <v>55.78322672445203</v>
+        <v>12.05611300491171</v>
       </c>
       <c r="K10" t="n">
-        <v>26.92960248950415</v>
+        <v>26.92960248950418</v>
       </c>
       <c r="L10" t="n">
-        <v>9.916720019592987</v>
+        <v>9.916720019593015</v>
       </c>
       <c r="M10" t="n">
-        <v>7.781694925813696</v>
+        <v>7.781694925813724</v>
       </c>
       <c r="N10" t="n">
-        <v>1.147936544145693</v>
+        <v>1.147936544145722</v>
       </c>
       <c r="O10" t="n">
-        <v>17.7314009000236</v>
+        <v>17.73140090002363</v>
       </c>
       <c r="P10" t="n">
-        <v>30.81657115581359</v>
+        <v>30.81657115581361</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.95707890304615</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>117.8808600739189</v>
@@ -23266,16 +23266,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>256.6351762393775</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>257.6451392102965</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>257.7869223760939</v>
+        <v>257.7869223760941</v>
       </c>
       <c r="H11" t="n">
-        <v>158.7814790782737</v>
+        <v>311.1460186509086</v>
       </c>
       <c r="I11" t="n">
         <v>102.0228116873166</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.62889670103935</v>
+        <v>62.62889670103939</v>
       </c>
       <c r="S11" t="n">
         <v>144.5332272940434</v>
       </c>
       <c r="T11" t="n">
-        <v>214.2731323936102</v>
+        <v>80.07044593803366</v>
       </c>
       <c r="U11" t="n">
-        <v>252.1931641446159</v>
+        <v>99.82862457198118</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>206.5450412683403</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23354,13 +23354,13 @@
         <v>126.4826861415321</v>
       </c>
       <c r="H12" t="n">
-        <v>89.68110828409156</v>
+        <v>89.68110828409158</v>
       </c>
       <c r="I12" t="n">
-        <v>47.85995410957435</v>
+        <v>47.85995410957436</v>
       </c>
       <c r="J12" t="n">
-        <v>12.49561708903497</v>
+        <v>12.49561708903499</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.85172769812637</v>
+        <v>58.85172769812639</v>
       </c>
       <c r="S12" t="n">
-        <v>133.4672394069154</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>182.9347089371331</v>
       </c>
       <c r="U12" t="n">
-        <v>82.04409691450303</v>
+        <v>63.88224379744506</v>
       </c>
       <c r="V12" t="n">
-        <v>73.74712675351449</v>
+        <v>73.74712675351466</v>
       </c>
       <c r="W12" t="n">
-        <v>86.53817050638818</v>
+        <v>86.53817050638835</v>
       </c>
       <c r="X12" t="n">
-        <v>43.57327866834848</v>
+        <v>195.2023711923223</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -23433,16 +23433,16 @@
         <v>166.426952769286</v>
       </c>
       <c r="H13" t="n">
-        <v>150.6341986570776</v>
+        <v>150.6341986570777</v>
       </c>
       <c r="I13" t="n">
         <v>118.5946191387801</v>
       </c>
       <c r="J13" t="n">
-        <v>15.40367015512679</v>
+        <v>46.36937469795654</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>11.45975178889822</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14.71243236701376</v>
+        <v>14.7124323670138</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.80740794817278</v>
+        <v>55.80740794817281</v>
       </c>
       <c r="R13" t="n">
         <v>111.8938583865013</v>
@@ -23469,10 +23469,10 @@
         <v>197.56813689915</v>
       </c>
       <c r="T13" t="n">
-        <v>227.4136069527055</v>
+        <v>227.4136069527056</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2745044770706</v>
+        <v>241.8490481453429</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23497,25 +23497,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>243.9117346249441</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>216.731185552414</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>238.4733231223195</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>280.4046320302814</v>
+        <v>410.1514619487288</v>
       </c>
       <c r="H14" t="n">
-        <v>158.7814790782737</v>
+        <v>311.1460186509086</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>102.0228116873166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>144.5332272940434</v>
       </c>
       <c r="T14" t="n">
-        <v>214.2731323936102</v>
+        <v>61.90859282097551</v>
       </c>
       <c r="U14" t="n">
         <v>252.1931641446159</v>
@@ -23582,22 +23582,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>127.4597544348665</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>126.4826861415321</v>
       </c>
       <c r="H15" t="n">
-        <v>89.68110828409156</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>47.85995410957434</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.49561708903494</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.85172769812635</v>
+        <v>58.85172769812637</v>
       </c>
       <c r="S15" t="n">
         <v>133.4672394069154</v>
@@ -23636,7 +23636,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>190.4439316000852</v>
+        <v>86.53817050638835</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.2943586658079</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -23676,10 +23676,10 @@
         <v>118.5946191387801</v>
       </c>
       <c r="J16" t="n">
-        <v>46.36937469795649</v>
+        <v>46.36937469795652</v>
       </c>
       <c r="K16" t="n">
-        <v>11.45975178889815</v>
+        <v>11.45975178889819</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14.71243236701372</v>
+        <v>14.71243236701378</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.80740794817277</v>
+        <v>55.80740794817279</v>
       </c>
       <c r="R16" t="n">
         <v>111.8938583865013</v>
       </c>
       <c r="S16" t="n">
-        <v>197.56813689915</v>
+        <v>155.1426805674222</v>
       </c>
       <c r="T16" t="n">
         <v>227.4136069527055</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>255.9004176672624</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>225.749881507886</v>
       </c>
       <c r="D17" t="n">
-        <v>216.7311855524137</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -23749,10 +23749,10 @@
         <v>410.1514619487288</v>
       </c>
       <c r="H17" t="n">
-        <v>158.7814790782737</v>
+        <v>311.1460186509086</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>102.0228116873166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.44902193277911</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>144.5332272940434</v>
@@ -23791,16 +23791,16 @@
         <v>252.1931641446159</v>
       </c>
       <c r="V17" t="n">
-        <v>181.2449417903831</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>225.8452995010869</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>237.2418972972856</v>
       </c>
     </row>
     <row r="18">
@@ -23816,25 +23816,25 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>126.4826861415321</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>89.68110828409158</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>34.69648281641395</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>12.49561708903498</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.85172769812636</v>
+        <v>58.85172769812637</v>
       </c>
       <c r="S18" t="n">
         <v>133.4672394069154</v>
       </c>
       <c r="T18" t="n">
-        <v>182.9347089371331</v>
+        <v>30.57016936449838</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2467833700798</v>
+        <v>67.12980798155817</v>
       </c>
       <c r="V18" t="n">
-        <v>73.74712675351444</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>209.8371701720337</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>43.57327866834865</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -23901,7 +23901,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>108.5303920927528</v>
       </c>
       <c r="G19" t="n">
         <v>166.426952769286</v>
@@ -23913,10 +23913,10 @@
         <v>118.5946191387801</v>
       </c>
       <c r="J19" t="n">
-        <v>46.36937469795651</v>
+        <v>2.642260978416189</v>
       </c>
       <c r="K19" t="n">
-        <v>11.45975178889817</v>
+        <v>11.45975178889819</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>14.71243236701375</v>
+        <v>14.71243236701378</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.80740794817278</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>111.8938583865013</v>
@@ -23946,7 +23946,7 @@
         <v>227.4136069527055</v>
       </c>
       <c r="U19" t="n">
-        <v>241.8490481453426</v>
+        <v>284.2745044770706</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23971,7 +23971,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>225.749881507886</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23983,7 +23983,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.1514619487288</v>
+        <v>275.9487754931523</v>
       </c>
       <c r="H20" t="n">
         <v>311.1460186509086</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>144.5332272940434</v>
       </c>
       <c r="T20" t="n">
-        <v>214.2731323936102</v>
+        <v>61.90859282097551</v>
       </c>
       <c r="U20" t="n">
-        <v>99.82862457198095</v>
+        <v>252.1931641446159</v>
       </c>
       <c r="V20" t="n">
-        <v>181.2449417903831</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>279.5044788078461</v>
+        <v>206.5450412683403</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24053,25 +24053,25 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>91.8152706569156</v>
       </c>
       <c r="H21" t="n">
-        <v>89.68110828409156</v>
+        <v>89.68110828409158</v>
       </c>
       <c r="I21" t="n">
-        <v>47.85995410957435</v>
+        <v>34.69648281641395</v>
       </c>
       <c r="J21" t="n">
-        <v>4.775616774990269</v>
+        <v>12.49561708903498</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>58.85172769812637</v>
       </c>
       <c r="S21" t="n">
-        <v>133.4672394069154</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>30.57016936449817</v>
+        <v>182.9347089371331</v>
       </c>
       <c r="U21" t="n">
         <v>216.2467833700798</v>
       </c>
       <c r="V21" t="n">
-        <v>73.74712675351444</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>86.53817050638835</v>
       </c>
       <c r="X21" t="n">
-        <v>43.57327866834842</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -24147,13 +24147,13 @@
         <v>150.6341986570776</v>
       </c>
       <c r="I22" t="n">
-        <v>76.16916280705217</v>
+        <v>118.5946191387801</v>
       </c>
       <c r="J22" t="n">
-        <v>46.36937469795652</v>
+        <v>2.642260978416189</v>
       </c>
       <c r="K22" t="n">
-        <v>11.45975178889817</v>
+        <v>11.45975178889819</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>14.71243236701376</v>
+        <v>14.71243236701378</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.80740794817278</v>
+        <v>55.80740794817279</v>
       </c>
       <c r="R22" t="n">
         <v>111.8938583865013</v>
@@ -24183,7 +24183,7 @@
         <v>227.4136069527055</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2745044770706</v>
+        <v>241.8490481453427</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24211,10 +24211,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>215.5086496548587</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>255.5583666208111</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>62.3631381176388</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>144.4368195377822</v>
       </c>
       <c r="T23" t="n">
-        <v>78.97511629958609</v>
+        <v>60.66753690353968</v>
       </c>
       <c r="U23" t="n">
-        <v>98.60575021603866</v>
+        <v>252.1928256862286</v>
       </c>
       <c r="V23" t="n">
-        <v>180.0224058928281</v>
+        <v>180.0224058928283</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>205.3225053707852</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -24305,7 +24305,7 @@
         <v>89.65924628698016</v>
       </c>
       <c r="I24" t="n">
-        <v>47.78201738054415</v>
+        <v>34.61854608738376</v>
       </c>
       <c r="J24" t="n">
         <v>12.28175274762867</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.71118345148287</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.4251932862221</v>
       </c>
       <c r="T24" t="n">
         <v>182.9255848793014</v>
       </c>
       <c r="U24" t="n">
-        <v>62.6595589762038</v>
+        <v>62.65955897620395</v>
       </c>
       <c r="V24" t="n">
-        <v>72.52459085595945</v>
+        <v>72.52459085595962</v>
       </c>
       <c r="W24" t="n">
-        <v>85.31563460883314</v>
+        <v>85.31563460883331</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>62.18889258621169</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.2723807183678</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -24372,13 +24372,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>106.9478431596859</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4250550095272</v>
+        <v>122.8839740729187</v>
       </c>
       <c r="H25" t="n">
         <v>150.6173258475859</v>
@@ -24408,7 +24408,7 @@
         <v>14.48290695036998</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.64849644691708</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>111.808528206802</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.5160286526492</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>224.5273456103309</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>215.5086496548589</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>256.4226033127415</v>
       </c>
       <c r="G26" t="n">
-        <v>410.1472312188874</v>
+        <v>256.5601557486975</v>
       </c>
       <c r="H26" t="n">
         <v>311.1026906889203</v>
@@ -24499,7 +24499,7 @@
         <v>214.2546123737294</v>
       </c>
       <c r="U26" t="n">
-        <v>252.1928256862286</v>
+        <v>116.9133296120854</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24508,10 +24508,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>224.6227636035317</v>
       </c>
       <c r="Y26" t="n">
-        <v>254.3269407957772</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.238172883258528</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>6.499560561265099</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -24542,10 +24542,10 @@
         <v>89.65924628698016</v>
       </c>
       <c r="I27" t="n">
-        <v>47.78201738054415</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.28175274762867</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.71118345148287</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>133.4251932862221</v>
       </c>
       <c r="T27" t="n">
-        <v>182.9255848793014</v>
+        <v>29.33850940911154</v>
       </c>
       <c r="U27" t="n">
         <v>216.2466344463937</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>72.5245908559595</v>
       </c>
       <c r="W27" t="n">
-        <v>105.1537844242514</v>
+        <v>85.31563460883319</v>
       </c>
       <c r="X27" t="n">
-        <v>42.3507427707936</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>103.7474862671581</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>106.9478431596859</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -24624,7 +24624,7 @@
         <v>118.5375483271251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.23520308301073</v>
+        <v>2.508089363470397</v>
       </c>
       <c r="K28" t="n">
         <v>11.23926660965077</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>14.48290695036998</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.59032246067862</v>
+        <v>55.64849644691708</v>
       </c>
       <c r="R28" t="n">
         <v>111.808528206802</v>
@@ -24685,7 +24685,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>215.5086496548589</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -24697,10 +24697,10 @@
         <v>256.5601557486976</v>
       </c>
       <c r="H29" t="n">
-        <v>186.4589637373319</v>
+        <v>311.1026906889203</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>101.8597064751056</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>62.3631381176388</v>
       </c>
       <c r="S29" t="n">
         <v>144.4368195377822</v>
       </c>
       <c r="T29" t="n">
-        <v>214.2546123737294</v>
+        <v>78.97511629958632</v>
       </c>
       <c r="U29" t="n">
-        <v>252.1928256862286</v>
+        <v>98.60575021603884</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>180.0224058928283</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24761,7 +24761,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>6.499560561265099</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -24770,19 +24770,19 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>126.4804225015042</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>89.65924628698016</v>
       </c>
       <c r="I30" t="n">
         <v>47.78201738054415</v>
       </c>
       <c r="J30" t="n">
-        <v>12.28175274762867</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>58.71118345148287</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>133.4251932862221</v>
       </c>
       <c r="T30" t="n">
-        <v>29.33850940911165</v>
+        <v>61.45841197215837</v>
       </c>
       <c r="U30" t="n">
-        <v>124.8100867093513</v>
+        <v>216.2466344463937</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24824,10 +24824,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>42.3507427707936</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>37.0090376167272</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>108.0000933039065</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
@@ -24894,7 +24894,7 @@
         <v>227.4054983428271</v>
       </c>
       <c r="U31" t="n">
-        <v>284.274400962902</v>
+        <v>240.7333200262935</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>236.5160286526492</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>215.5086496548589</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -24931,7 +24931,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>256.5601557486975</v>
+        <v>410.1472312188874</v>
       </c>
       <c r="H32" t="n">
         <v>311.1026906889203</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>62.3631381176388</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>144.4368195377822</v>
@@ -24973,19 +24973,19 @@
         <v>214.2546123737294</v>
       </c>
       <c r="U32" t="n">
-        <v>98.60575021603873</v>
+        <v>252.1928256862286</v>
       </c>
       <c r="V32" t="n">
-        <v>180.0224058928282</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>242.9303429995784</v>
+        <v>305.2934811172173</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>236.0193613997306</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>6.499560561265099</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>126.4804225015042</v>
@@ -25049,19 +25049,19 @@
         <v>133.4251932862221</v>
       </c>
       <c r="T33" t="n">
-        <v>182.9255848793014</v>
+        <v>158.3573488371622</v>
       </c>
       <c r="U33" t="n">
-        <v>62.65955897620384</v>
+        <v>216.2466344463937</v>
       </c>
       <c r="V33" t="n">
-        <v>72.5245908559595</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>85.31563460883319</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>62.18889258621206</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -25156,19 +25156,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>224.5273456103309</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>237.2507872247644</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.1472312188874</v>
+        <v>256.5601557486976</v>
       </c>
       <c r="H35" t="n">
         <v>311.1026906889203</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>62.3631381176388</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>144.4368195377822</v>
@@ -25213,16 +25213,16 @@
         <v>252.1928256862286</v>
       </c>
       <c r="V35" t="n">
-        <v>180.0224058928282</v>
+        <v>260.6931234065137</v>
       </c>
       <c r="W35" t="n">
-        <v>205.3225053707851</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6227636035317</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>254.3269407957772</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.238172883258414</v>
+        <v>4.238172883258471</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>6.499560561265042</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>126.4804225015042</v>
@@ -25253,10 +25253,10 @@
         <v>89.65924628698016</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>47.78201738054415</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>12.28175274762867</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>216.2466344463937</v>
       </c>
       <c r="V36" t="n">
-        <v>152.4265107995509</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>42.35074277079349</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.00903761672708</v>
+        <v>182.1647018752775</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>108.0000933039065</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25365,7 +25365,7 @@
         <v>197.5350641222629</v>
       </c>
       <c r="T37" t="n">
-        <v>227.4054983428271</v>
+        <v>183.8644174062186</v>
       </c>
       <c r="U37" t="n">
         <v>284.274400962902</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.5160286526491</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>215.5086496548587</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>255.5583666208109</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>256.5601557486975</v>
+        <v>410.1472312188874</v>
       </c>
       <c r="H38" t="n">
         <v>311.1026906889203</v>
@@ -25444,22 +25444,22 @@
         <v>144.4368195377822</v>
       </c>
       <c r="T38" t="n">
-        <v>214.2546123737294</v>
+        <v>60.66753690353951</v>
       </c>
       <c r="U38" t="n">
         <v>252.1928256862286</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>180.0224058928281</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6227636035317</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>254.3269407957771</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.07632269867699</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>126.4804225015042</v>
@@ -25523,7 +25523,7 @@
         <v>133.4251932862221</v>
       </c>
       <c r="T39" t="n">
-        <v>182.9255848793014</v>
+        <v>29.33850940911148</v>
       </c>
       <c r="U39" t="n">
         <v>216.2466344463937</v>
@@ -25532,13 +25532,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>85.31563460883319</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>42.35074277079349</v>
+        <v>171.3695821988443</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.00903761672708</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -25572,7 +25572,7 @@
         <v>118.5375483271251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.23520308301073</v>
+        <v>2.508089363470397</v>
       </c>
       <c r="K40" t="n">
         <v>11.23926660965077</v>
@@ -25596,7 +25596,7 @@
         <v>55.64849644691708</v>
       </c>
       <c r="R40" t="n">
-        <v>68.26744727019351</v>
+        <v>111.808528206802</v>
       </c>
       <c r="S40" t="n">
         <v>197.5350641222629</v>
@@ -25605,7 +25605,7 @@
         <v>227.4054983428271</v>
       </c>
       <c r="U40" t="n">
-        <v>284.274400962902</v>
+        <v>240.7333200262935</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254.8236080486957</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>224.5273456103307</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>215.5086496548587</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>237.2507872247645</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.1472312188874</v>
+        <v>274.8677351447443</v>
       </c>
       <c r="H41" t="n">
         <v>311.1026906889203</v>
@@ -25681,10 +25681,10 @@
         <v>144.4368195377822</v>
       </c>
       <c r="T41" t="n">
-        <v>214.2546123737294</v>
+        <v>60.66753690353971</v>
       </c>
       <c r="U41" t="n">
-        <v>252.1928256862286</v>
+        <v>98.60575021603887</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25693,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>224.6227636035316</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25709,7 +25709,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>6.4995605612649</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.71118345148287</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>133.4251932862221</v>
       </c>
       <c r="T42" t="n">
-        <v>182.9255848793014</v>
+        <v>29.33850940911168</v>
       </c>
       <c r="U42" t="n">
-        <v>82.49770879162264</v>
+        <v>82.4977087916219</v>
       </c>
       <c r="V42" t="n">
-        <v>72.52459085595942</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>85.31563460883311</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>42.35074277079363</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>37.00903761672723</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>106.9478431596858</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25836,7 +25836,7 @@
         <v>111.808528206802</v>
       </c>
       <c r="S43" t="n">
-        <v>197.5350641222629</v>
+        <v>153.9939831856545</v>
       </c>
       <c r="T43" t="n">
         <v>227.4054983428271</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.516028652649</v>
+        <v>236.5160286526492</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25873,13 +25873,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>237.2507872247643</v>
+        <v>237.2507872247645</v>
       </c>
       <c r="F44" t="n">
-        <v>274.730182708788</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.1472312188874</v>
+        <v>256.5601557486976</v>
       </c>
       <c r="H44" t="n">
         <v>311.1026906889203</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>62.3631381176388</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>144.4368195377822</v>
       </c>
       <c r="T44" t="n">
-        <v>214.2546123737294</v>
+        <v>78.97511629958632</v>
       </c>
       <c r="U44" t="n">
         <v>252.1928256862286</v>
@@ -25933,7 +25933,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.0193613997304</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>6.499560561265127</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>11.80880418892568</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -25994,25 +25994,25 @@
         <v>58.71118345148287</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.4251932862221</v>
       </c>
       <c r="T45" t="n">
         <v>182.9255848793014</v>
       </c>
       <c r="U45" t="n">
-        <v>62.65955897620375</v>
+        <v>62.65955897620398</v>
       </c>
       <c r="V45" t="n">
-        <v>72.52459085595942</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>85.31563460883311</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.6140858724343</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>37.00903761672723</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>122.8839740729187</v>
+        <v>166.4250550095272</v>
       </c>
       <c r="H46" t="n">
         <v>150.6173258475859</v>
@@ -26079,7 +26079,7 @@
         <v>227.4054983428271</v>
       </c>
       <c r="U46" t="n">
-        <v>284.274400962902</v>
+        <v>240.7333200262935</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>200656.4299695097</v>
+        <v>218128.2685973089</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>245746.3021196482</v>
+        <v>255232.6096312612</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>283508.0436955429</v>
+        <v>288223.190301265</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345256.5135550336</v>
+        <v>354105.3503699233</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>345256.5135550336</v>
+        <v>359336.203842491</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>345256.5135550335</v>
+        <v>356958.8082638988</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346062.33859799</v>
+        <v>362653.5388473516</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>346062.3385979899</v>
+        <v>353334.4001585242</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346062.3385979899</v>
+        <v>350480.9422645485</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>346062.33859799</v>
+        <v>346062.3385979898</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>346062.3385979899</v>
+        <v>346062.33859799</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>346062.3385979899</v>
+        <v>347925.1136424423</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346062.3385979899</v>
+        <v>350480.9422645485</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346062.3385979899</v>
+        <v>354873.6263826311</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74754.35626315071</v>
+        <v>79429.91871284349</v>
       </c>
       <c r="C2" t="n">
-        <v>91552.54392692776</v>
+        <v>94091.13326102134</v>
       </c>
       <c r="D2" t="n">
-        <v>105620.643729712</v>
+        <v>106882.4435256094</v>
       </c>
       <c r="E2" t="n">
-        <v>128624.9756381497</v>
+        <v>128624.9756381496</v>
       </c>
       <c r="F2" t="n">
-        <v>128624.9756381497</v>
+        <v>130992.974222416</v>
       </c>
       <c r="G2" t="n">
-        <v>128624.9756381497</v>
+        <v>132392.7800812721</v>
       </c>
       <c r="H2" t="n">
-        <v>128624.9756381497</v>
+        <v>131756.575630663</v>
       </c>
       <c r="I2" t="n">
-        <v>128925.1849678786</v>
+        <v>133365.0836261585</v>
       </c>
       <c r="J2" t="n">
-        <v>128925.1849678786</v>
+        <v>130871.2296108384</v>
       </c>
       <c r="K2" t="n">
-        <v>128925.1849678786</v>
+        <v>130107.6282025914</v>
       </c>
       <c r="L2" t="n">
         <v>128925.1849678786</v>
@@ -26349,13 +26349,13 @@
         <v>128925.1849678786</v>
       </c>
       <c r="N2" t="n">
-        <v>128925.1849678786</v>
+        <v>129423.6740642813</v>
       </c>
       <c r="O2" t="n">
-        <v>128925.1849678786</v>
+        <v>130107.6282025914</v>
       </c>
       <c r="P2" t="n">
-        <v>128925.1849678786</v>
+        <v>131283.1352201065</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>65262.22160062587</v>
       </c>
       <c r="D3" t="n">
-        <v>53078.91093324756</v>
+        <v>53078.91093324743</v>
       </c>
       <c r="E3" t="n">
-        <v>82335.05898009178</v>
+        <v>82335.05898009172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1117.286535690095</v>
+        <v>1117.286535690152</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10412.70861195258</v>
+        <v>10412.70861195254</v>
       </c>
       <c r="L3" t="n">
-        <v>8815.622202583836</v>
+        <v>8815.6222025838</v>
       </c>
       <c r="M3" t="n">
-        <v>19207.21595126268</v>
+        <v>19207.21595126267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4921.644683887096</v>
       </c>
       <c r="C4" t="n">
-        <v>25.15807157694192</v>
+        <v>2697.357370622848</v>
       </c>
       <c r="D4" t="n">
-        <v>54.55578688676758</v>
+        <v>1382.766098357806</v>
       </c>
       <c r="E4" t="n">
-        <v>111.9625959337713</v>
+        <v>111.9625959337712</v>
       </c>
       <c r="F4" t="n">
-        <v>111.9625959337715</v>
+        <v>2604.592684635138</v>
       </c>
       <c r="G4" t="n">
-        <v>111.9625959337714</v>
+        <v>4078.072536062697</v>
       </c>
       <c r="H4" t="n">
-        <v>111.9625959337713</v>
+        <v>3408.383640684622</v>
       </c>
       <c r="I4" t="n">
-        <v>112.790110039535</v>
+        <v>4786.367645071003</v>
       </c>
       <c r="J4" t="n">
-        <v>112.790110039535</v>
+        <v>2161.258155260457</v>
       </c>
       <c r="K4" t="n">
-        <v>112.790110039535</v>
+        <v>1357.467199210972</v>
       </c>
       <c r="L4" t="n">
         <v>112.790110039535</v>
@@ -26453,13 +26453,13 @@
         <v>112.790110039535</v>
       </c>
       <c r="N4" t="n">
-        <v>112.790110039535</v>
+        <v>637.5154746740191</v>
       </c>
       <c r="O4" t="n">
-        <v>112.790110039535</v>
+        <v>1357.467199210972</v>
       </c>
       <c r="P4" t="n">
-        <v>112.7901100395351</v>
+        <v>2594.84300712156</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>39407.51160971557</v>
       </c>
       <c r="C5" t="n">
-        <v>43116.85509226676</v>
+        <v>43116.85509226675</v>
       </c>
       <c r="D5" t="n">
-        <v>46310.33472849196</v>
+        <v>46310.33472849194</v>
       </c>
       <c r="E5" t="n">
-        <v>18978.53783443602</v>
+        <v>18978.53783443601</v>
       </c>
       <c r="F5" t="n">
-        <v>18978.53783443603</v>
+        <v>18978.53783443601</v>
       </c>
       <c r="G5" t="n">
-        <v>18978.53783443603</v>
+        <v>18978.53783443601</v>
       </c>
       <c r="H5" t="n">
-        <v>18978.53783443602</v>
+        <v>18978.53783443601</v>
       </c>
       <c r="I5" t="n">
+        <v>19075.81020725487</v>
+      </c>
+      <c r="J5" t="n">
         <v>19075.81020725488</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19075.81020725487</v>
       </c>
       <c r="K5" t="n">
         <v>19075.81020725487</v>
       </c>
       <c r="L5" t="n">
-        <v>19075.81020725488</v>
+        <v>19075.81020725487</v>
       </c>
       <c r="M5" t="n">
-        <v>19075.81020725488</v>
+        <v>19075.81020725487</v>
       </c>
       <c r="N5" t="n">
         <v>19075.81020725488</v>
       </c>
       <c r="O5" t="n">
-        <v>19075.81020725488</v>
+        <v>19075.81020725487</v>
       </c>
       <c r="P5" t="n">
-        <v>19075.81020725488</v>
+        <v>19075.81020725487</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-220139.3005746774</v>
+        <v>-235395.4622837081</v>
       </c>
       <c r="C6" t="n">
-        <v>-16851.69083754182</v>
+        <v>-31223.73740637386</v>
       </c>
       <c r="D6" t="n">
-        <v>6176.84228108573</v>
+        <v>-7454.777982336527</v>
       </c>
       <c r="E6" t="n">
-        <v>27199.41622768808</v>
+        <v>14778.55027523619</v>
       </c>
       <c r="F6" t="n">
-        <v>109534.4752077799</v>
+        <v>97113.60925532794</v>
       </c>
       <c r="G6" t="n">
-        <v>109534.4752077799</v>
+        <v>97113.60925532793</v>
       </c>
       <c r="H6" t="n">
-        <v>109534.4752077799</v>
+        <v>97113.60925532794</v>
       </c>
       <c r="I6" t="n">
-        <v>108619.2981148941</v>
+        <v>96214.23265348046</v>
       </c>
       <c r="J6" t="n">
-        <v>109736.5846505842</v>
+        <v>97331.51918917056</v>
       </c>
       <c r="K6" t="n">
-        <v>99323.87603863158</v>
+        <v>86918.81057721806</v>
       </c>
       <c r="L6" t="n">
-        <v>100920.9624480003</v>
+        <v>88515.89698658678</v>
       </c>
       <c r="M6" t="n">
-        <v>90529.36869932151</v>
+        <v>78124.30323790792</v>
       </c>
       <c r="N6" t="n">
-        <v>109736.5846505842</v>
+        <v>97331.51918917059</v>
       </c>
       <c r="O6" t="n">
-        <v>109736.5846505841</v>
+        <v>97331.51918917061</v>
       </c>
       <c r="P6" t="n">
-        <v>109736.5846505842</v>
+        <v>97331.51918917063</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>322.448703904899</v>
       </c>
       <c r="D3" t="n">
-        <v>371.7929464958848</v>
+        <v>371.7929464958847</v>
       </c>
       <c r="E3" t="n">
-        <v>445.6318269917349</v>
+        <v>445.6318269917347</v>
       </c>
       <c r="F3" t="n">
-        <v>445.6318269917351</v>
+        <v>445.6318269917348</v>
       </c>
       <c r="G3" t="n">
-        <v>445.631826991735</v>
+        <v>445.6318269917348</v>
       </c>
       <c r="H3" t="n">
-        <v>445.6318269917349</v>
+        <v>445.6318269917348</v>
       </c>
       <c r="I3" t="n">
         <v>446.6842210397859</v>
@@ -26792,46 +26792,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="D4" t="n">
-        <v>75.29027129739586</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="E4" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="F4" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="G4" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3645395726349</v>
+        <v>152.3645395726347</v>
       </c>
       <c r="I4" t="n">
+        <v>153.5870754701897</v>
+      </c>
+      <c r="J4" t="n">
         <v>153.5870754701899</v>
-      </c>
-      <c r="J4" t="n">
-        <v>153.5870754701897</v>
       </c>
       <c r="K4" t="n">
         <v>153.5870754701897</v>
       </c>
       <c r="L4" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="M4" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701898</v>
       </c>
       <c r="N4" t="n">
         <v>153.5870754701899</v>
       </c>
       <c r="O4" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
       <c r="P4" t="n">
-        <v>153.5870754701899</v>
+        <v>153.5870754701897</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>57.31514382620304</v>
       </c>
       <c r="D3" t="n">
-        <v>49.3442425909858</v>
+        <v>49.34424259098569</v>
       </c>
       <c r="E3" t="n">
-        <v>73.83888049585011</v>
+        <v>73.83888049585005</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.052394048051042</v>
+        <v>1.052394048051099</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="D4" t="n">
-        <v>34.83182808785708</v>
+        <v>34.83182808785696</v>
       </c>
       <c r="E4" t="n">
-        <v>77.07426827523901</v>
+        <v>77.07426827523898</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.222535897554991</v>
+        <v>1.222535897555048</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953864</v>
       </c>
       <c r="L4" t="n">
-        <v>34.83182808785708</v>
+        <v>34.83182808785693</v>
       </c>
       <c r="M4" t="n">
-        <v>77.07426827523909</v>
+        <v>77.07426827523904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="L4" t="n">
-        <v>34.83182808785708</v>
+        <v>34.83182808785696</v>
       </c>
       <c r="M4" t="n">
-        <v>77.07426827523901</v>
+        <v>77.07426827523898</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31296,7 +31296,7 @@
         <v>204.5621058953662</v>
       </c>
       <c r="M5" t="n">
-        <v>227.6147577066979</v>
+        <v>227.6147577066978</v>
       </c>
       <c r="N5" t="n">
         <v>226.8565573817689</v>
@@ -31378,13 +31378,13 @@
         <v>155.9423457711787</v>
       </c>
       <c r="N6" t="n">
-        <v>124.3930697020719</v>
+        <v>147.1735842772471</v>
       </c>
       <c r="O6" t="n">
         <v>156.3178918206499</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4412421755801</v>
+        <v>109.660727600405</v>
       </c>
       <c r="Q6" t="n">
         <v>88.53346300422812</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.494645011038732</v>
+        <v>1.494645011038731</v>
       </c>
       <c r="H8" t="n">
         <v>15.30703321930041</v>
       </c>
       <c r="I8" t="n">
-        <v>57.62230178807076</v>
+        <v>57.62230178807074</v>
       </c>
       <c r="J8" t="n">
-        <v>126.8561270056487</v>
+        <v>126.8561270056486</v>
       </c>
       <c r="K8" t="n">
         <v>190.1244503229182</v>
       </c>
       <c r="L8" t="n">
-        <v>235.8661925794949</v>
+        <v>235.8661925794948</v>
       </c>
       <c r="M8" t="n">
-        <v>262.4465857945549</v>
+        <v>262.4465857945548</v>
       </c>
       <c r="N8" t="n">
-        <v>261.688385469626</v>
+        <v>261.6883854696258</v>
       </c>
       <c r="O8" t="n">
-        <v>251.8308696036523</v>
+        <v>251.8308696036522</v>
       </c>
       <c r="P8" t="n">
-        <v>214.9318208936336</v>
+        <v>214.9318208936335</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.404846435809</v>
+        <v>161.4048464358089</v>
       </c>
       <c r="R8" t="n">
-        <v>93.88799467466181</v>
+        <v>93.88799467466178</v>
       </c>
       <c r="S8" t="n">
-        <v>34.05922318904513</v>
+        <v>34.05922318904512</v>
       </c>
       <c r="T8" t="n">
-        <v>6.542808535822052</v>
+        <v>6.542808535822049</v>
       </c>
       <c r="U8" t="n">
         <v>0.1195716008830985</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7997055830288843</v>
+        <v>0.7997055830288841</v>
       </c>
       <c r="H9" t="n">
-        <v>7.72347234135791</v>
+        <v>7.723472341357907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.5337229244594</v>
+        <v>27.53372292445939</v>
       </c>
       <c r="J9" t="n">
-        <v>75.55464019309298</v>
+        <v>75.55464019309295</v>
       </c>
       <c r="K9" t="n">
         <v>129.1349142560282</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7098614058475</v>
+        <v>173.6378284554601</v>
       </c>
       <c r="M9" t="n">
-        <v>190.7741738590358</v>
+        <v>190.7741738590356</v>
       </c>
       <c r="N9" t="n">
-        <v>182.0054123651042</v>
+        <v>176.9319308435917</v>
       </c>
       <c r="O9" t="n">
         <v>190.27030159021</v>
       </c>
       <c r="P9" t="n">
-        <v>152.7086915522437</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>102.0817161775116</v>
       </c>
       <c r="R9" t="n">
-        <v>49.65189576033724</v>
+        <v>49.65189576033723</v>
       </c>
       <c r="S9" t="n">
         <v>14.85418045669878</v>
       </c>
       <c r="T9" t="n">
-        <v>3.223374696506774</v>
+        <v>3.223374696506772</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05261220940979504</v>
+        <v>0.05261220940979502</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6704462969597922</v>
+        <v>0.670446296959792</v>
       </c>
       <c r="H10" t="n">
-        <v>5.960877076606157</v>
+        <v>5.960877076606155</v>
       </c>
       <c r="I10" t="n">
-        <v>20.16214863948176</v>
+        <v>20.16214863948175</v>
       </c>
       <c r="J10" t="n">
-        <v>47.40055319505731</v>
+        <v>47.40055319505729</v>
       </c>
       <c r="K10" t="n">
-        <v>77.89366977405584</v>
+        <v>77.89366977405581</v>
       </c>
       <c r="L10" t="n">
-        <v>99.67707945891311</v>
+        <v>99.67707945891308</v>
       </c>
       <c r="M10" t="n">
         <v>105.0955045316154</v>
       </c>
       <c r="N10" t="n">
-        <v>102.5965683338563</v>
+        <v>102.5965683338562</v>
       </c>
       <c r="O10" t="n">
-        <v>94.76453659209866</v>
+        <v>94.76453659209864</v>
       </c>
       <c r="P10" t="n">
-        <v>81.08743213411883</v>
+        <v>81.08743213411881</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.1407349208786</v>
+        <v>56.14073492087859</v>
       </c>
       <c r="R10" t="n">
-        <v>30.14570349784665</v>
+        <v>30.14570349784664</v>
       </c>
       <c r="S10" t="n">
         <v>11.68405046610837</v>
       </c>
       <c r="T10" t="n">
-        <v>2.864634177919111</v>
+        <v>2.86463417791911</v>
       </c>
       <c r="U10" t="n">
         <v>0.0365697980159887</v>
@@ -31755,43 +31755,43 @@
         <v>1.791484731625063</v>
       </c>
       <c r="H11" t="n">
-        <v>18.34704300775519</v>
+        <v>18.34704300775518</v>
       </c>
       <c r="I11" t="n">
-        <v>69.06621511597533</v>
+        <v>69.0662151159753</v>
       </c>
       <c r="J11" t="n">
-        <v>152.0500272407629</v>
+        <v>152.0500272407628</v>
       </c>
       <c r="K11" t="n">
-        <v>227.8835759304519</v>
+        <v>227.8835759304518</v>
       </c>
       <c r="L11" t="n">
-        <v>282.7097267859224</v>
+        <v>282.7097267859223</v>
       </c>
       <c r="M11" t="n">
-        <v>314.5690433819597</v>
+        <v>314.5690433819595</v>
       </c>
       <c r="N11" t="n">
-        <v>319.6590993756894</v>
+        <v>319.6590993756893</v>
       </c>
       <c r="O11" t="n">
-        <v>301.8450230755927</v>
+        <v>301.8450230755926</v>
       </c>
       <c r="P11" t="n">
-        <v>257.6177437635989</v>
+        <v>257.6177437635988</v>
       </c>
       <c r="Q11" t="n">
-        <v>193.4601968122762</v>
+        <v>193.4601968122761</v>
       </c>
       <c r="R11" t="n">
         <v>112.534352772943</v>
       </c>
       <c r="S11" t="n">
-        <v>40.82345832190617</v>
+        <v>40.82345832190616</v>
       </c>
       <c r="T11" t="n">
-        <v>7.84222441268872</v>
+        <v>7.842224412688717</v>
       </c>
       <c r="U11" t="n">
         <v>0.143318778530005</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9585288354161845</v>
+        <v>0.9585288354161842</v>
       </c>
       <c r="H12" t="n">
-        <v>9.257370594677363</v>
+        <v>9.25737059467736</v>
       </c>
       <c r="I12" t="n">
         <v>33.00197964042565</v>
       </c>
       <c r="J12" t="n">
-        <v>90.55995457763173</v>
+        <v>90.5599545776317</v>
       </c>
       <c r="K12" t="n">
-        <v>154.7813865505161</v>
+        <v>154.781386550516</v>
       </c>
       <c r="L12" t="n">
         <v>208.1226754266588</v>
       </c>
       <c r="M12" t="n">
-        <v>242.8693457104955</v>
+        <v>242.8693457104954</v>
       </c>
       <c r="N12" t="n">
-        <v>249.2973746111593</v>
+        <v>249.2973746111592</v>
       </c>
       <c r="O12" t="n">
-        <v>228.0583935737797</v>
+        <v>228.0583935737796</v>
       </c>
       <c r="P12" t="n">
-        <v>183.0369668260958</v>
+        <v>183.0369668260957</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.3553650261081</v>
+        <v>122.355365026108</v>
       </c>
       <c r="R12" t="n">
-        <v>59.51286927259436</v>
+        <v>59.51286927259434</v>
       </c>
       <c r="S12" t="n">
-        <v>17.80425271047166</v>
+        <v>17.80425271047165</v>
       </c>
       <c r="T12" t="n">
-        <v>3.863543858541549</v>
+        <v>3.863543858541548</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06306110759317006</v>
+        <v>0.06306110759317003</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8035983765424727</v>
+        <v>0.8035983765424723</v>
       </c>
       <c r="H13" t="n">
-        <v>7.144720111441262</v>
+        <v>7.144720111441259</v>
       </c>
       <c r="I13" t="n">
-        <v>24.16639481456819</v>
+        <v>24.16639481456818</v>
       </c>
       <c r="J13" t="n">
-        <v>56.81440522155282</v>
+        <v>56.8144052215528</v>
       </c>
       <c r="K13" t="n">
-        <v>93.36352047466181</v>
+        <v>93.36352047466177</v>
       </c>
       <c r="L13" t="n">
-        <v>119.4731622725055</v>
+        <v>119.4731622725054</v>
       </c>
       <c r="M13" t="n">
         <v>125.9676982429259</v>
       </c>
       <c r="N13" t="n">
-        <v>122.9724679303587</v>
+        <v>122.9724679303586</v>
       </c>
       <c r="O13" t="n">
-        <v>113.5849778043852</v>
+        <v>113.5849778043851</v>
       </c>
       <c r="P13" t="n">
-        <v>97.19157092291866</v>
+        <v>97.19157092291861</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.29040587575197</v>
+        <v>67.29040587575194</v>
       </c>
       <c r="R13" t="n">
-        <v>36.13270518526426</v>
+        <v>36.13270518526425</v>
       </c>
       <c r="S13" t="n">
-        <v>14.00452807119927</v>
+        <v>14.00452807119926</v>
       </c>
       <c r="T13" t="n">
-        <v>3.433556699772383</v>
+        <v>3.433556699772381</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04383263872049856</v>
+        <v>0.04383263872049854</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.791484731625064</v>
+        <v>1.791484731625063</v>
       </c>
       <c r="H14" t="n">
         <v>18.34704300775519</v>
       </c>
       <c r="I14" t="n">
-        <v>69.06621511597535</v>
+        <v>69.06621511597533</v>
       </c>
       <c r="J14" t="n">
         <v>152.0500272407629</v>
       </c>
       <c r="K14" t="n">
-        <v>227.8835759304519</v>
+        <v>227.8835759304518</v>
       </c>
       <c r="L14" t="n">
-        <v>282.7097267859226</v>
+        <v>282.7097267859224</v>
       </c>
       <c r="M14" t="n">
-        <v>314.5690433819598</v>
+        <v>314.5690433819596</v>
       </c>
       <c r="N14" t="n">
-        <v>319.6590993756896</v>
+        <v>319.6590993756894</v>
       </c>
       <c r="O14" t="n">
-        <v>301.8450230755928</v>
+        <v>301.8450230755926</v>
       </c>
       <c r="P14" t="n">
-        <v>257.617743763599</v>
+        <v>257.6177437635988</v>
       </c>
       <c r="Q14" t="n">
-        <v>193.4601968122763</v>
+        <v>193.4601968122762</v>
       </c>
       <c r="R14" t="n">
         <v>112.534352772943</v>
       </c>
       <c r="S14" t="n">
-        <v>40.82345832190619</v>
+        <v>40.82345832190617</v>
       </c>
       <c r="T14" t="n">
-        <v>7.842224412688723</v>
+        <v>7.842224412688719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1433187785300051</v>
+        <v>0.143318778530005</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9585288354161849</v>
+        <v>0.9585288354161844</v>
       </c>
       <c r="H15" t="n">
-        <v>9.257370594677367</v>
+        <v>9.257370594677361</v>
       </c>
       <c r="I15" t="n">
-        <v>33.00197964042567</v>
+        <v>33.00197964042565</v>
       </c>
       <c r="J15" t="n">
-        <v>90.55995457763176</v>
+        <v>90.55995457763171</v>
       </c>
       <c r="K15" t="n">
         <v>154.7813865505161</v>
       </c>
       <c r="L15" t="n">
-        <v>208.1226754266589</v>
+        <v>208.1226754266588</v>
       </c>
       <c r="M15" t="n">
-        <v>242.8693457104956</v>
+        <v>242.8693457104955</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2973746111594</v>
+        <v>249.2973746111593</v>
       </c>
       <c r="O15" t="n">
-        <v>228.0583935737797</v>
+        <v>228.0583935737796</v>
       </c>
       <c r="P15" t="n">
-        <v>183.0369668260959</v>
+        <v>183.0369668260958</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.3553650261081</v>
+        <v>122.355365026108</v>
       </c>
       <c r="R15" t="n">
-        <v>59.51286927259438</v>
+        <v>59.51286927259435</v>
       </c>
       <c r="S15" t="n">
-        <v>17.80425271047167</v>
+        <v>17.80425271047166</v>
       </c>
       <c r="T15" t="n">
-        <v>3.863543858541551</v>
+        <v>3.863543858541549</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06306110759317009</v>
+        <v>0.06306110759317005</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.803598376542473</v>
+        <v>0.8035983765424726</v>
       </c>
       <c r="H16" t="n">
-        <v>7.144720111441265</v>
+        <v>7.144720111441261</v>
       </c>
       <c r="I16" t="n">
-        <v>24.1663948145682</v>
+        <v>24.16639481456818</v>
       </c>
       <c r="J16" t="n">
-        <v>56.81440522155284</v>
+        <v>56.81440522155281</v>
       </c>
       <c r="K16" t="n">
-        <v>93.36352047466184</v>
+        <v>93.3635204746618</v>
       </c>
       <c r="L16" t="n">
-        <v>119.4731622725055</v>
+        <v>119.4731622725054</v>
       </c>
       <c r="M16" t="n">
-        <v>125.967698242926</v>
+        <v>125.9676982429259</v>
       </c>
       <c r="N16" t="n">
-        <v>122.9724679303587</v>
+        <v>122.9724679303586</v>
       </c>
       <c r="O16" t="n">
         <v>113.5849778043852</v>
       </c>
       <c r="P16" t="n">
-        <v>97.1915709229187</v>
+        <v>97.19157092291864</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.29040587575199</v>
+        <v>67.29040587575196</v>
       </c>
       <c r="R16" t="n">
-        <v>36.13270518526428</v>
+        <v>36.13270518526426</v>
       </c>
       <c r="S16" t="n">
         <v>14.00452807119927</v>
       </c>
       <c r="T16" t="n">
-        <v>3.433556699772384</v>
+        <v>3.433556699772382</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04383263872049858</v>
+        <v>0.04383263872049856</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.791484731625064</v>
+        <v>1.791484731625063</v>
       </c>
       <c r="H17" t="n">
         <v>18.34704300775519</v>
       </c>
       <c r="I17" t="n">
-        <v>69.06621511597534</v>
+        <v>69.06621511597533</v>
       </c>
       <c r="J17" t="n">
         <v>152.0500272407629</v>
       </c>
       <c r="K17" t="n">
-        <v>227.8835759304519</v>
+        <v>227.8835759304518</v>
       </c>
       <c r="L17" t="n">
-        <v>282.7097267859225</v>
+        <v>282.7097267859224</v>
       </c>
       <c r="M17" t="n">
-        <v>314.5690433819597</v>
+        <v>314.5690433819596</v>
       </c>
       <c r="N17" t="n">
         <v>319.6590993756894</v>
       </c>
       <c r="O17" t="n">
-        <v>301.8450230755927</v>
+        <v>301.8450230755926</v>
       </c>
       <c r="P17" t="n">
-        <v>257.6177437635989</v>
+        <v>257.6177437635988</v>
       </c>
       <c r="Q17" t="n">
-        <v>193.4601968122763</v>
+        <v>193.4601968122762</v>
       </c>
       <c r="R17" t="n">
         <v>112.534352772943</v>
       </c>
       <c r="S17" t="n">
-        <v>40.82345832190618</v>
+        <v>40.82345832190617</v>
       </c>
       <c r="T17" t="n">
-        <v>7.84222441268872</v>
+        <v>7.842224412688719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1433187785300051</v>
+        <v>0.143318778530005</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9585288354161846</v>
+        <v>0.9585288354161844</v>
       </c>
       <c r="H18" t="n">
-        <v>9.257370594677363</v>
+        <v>9.257370594677361</v>
       </c>
       <c r="I18" t="n">
-        <v>33.00197964042566</v>
+        <v>33.00197964042565</v>
       </c>
       <c r="J18" t="n">
-        <v>90.55995457763174</v>
+        <v>90.55995457763171</v>
       </c>
       <c r="K18" t="n">
         <v>154.7813865505161</v>
       </c>
       <c r="L18" t="n">
-        <v>208.1226754266589</v>
+        <v>208.1226754266588</v>
       </c>
       <c r="M18" t="n">
         <v>242.8693457104955</v>
       </c>
       <c r="N18" t="n">
-        <v>249.2973746111594</v>
+        <v>249.2973746111593</v>
       </c>
       <c r="O18" t="n">
-        <v>228.0583935737797</v>
+        <v>228.0583935737796</v>
       </c>
       <c r="P18" t="n">
         <v>183.0369668260958</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.3553650261081</v>
+        <v>122.355365026108</v>
       </c>
       <c r="R18" t="n">
-        <v>59.51286927259437</v>
+        <v>59.51286927259435</v>
       </c>
       <c r="S18" t="n">
         <v>17.80425271047166</v>
       </c>
       <c r="T18" t="n">
-        <v>3.86354385854155</v>
+        <v>3.863543858541549</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06306110759317007</v>
+        <v>0.06306110759317005</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8035983765424728</v>
+        <v>0.8035983765424726</v>
       </c>
       <c r="H19" t="n">
-        <v>7.144720111441263</v>
+        <v>7.144720111441261</v>
       </c>
       <c r="I19" t="n">
-        <v>24.16639481456819</v>
+        <v>24.16639481456818</v>
       </c>
       <c r="J19" t="n">
-        <v>56.81440522155282</v>
+        <v>56.81440522155281</v>
       </c>
       <c r="K19" t="n">
-        <v>93.36352047466181</v>
+        <v>93.3635204746618</v>
       </c>
       <c r="L19" t="n">
-        <v>119.4731622725055</v>
+        <v>119.4731622725054</v>
       </c>
       <c r="M19" t="n">
-        <v>125.967698242926</v>
+        <v>125.9676982429259</v>
       </c>
       <c r="N19" t="n">
-        <v>122.9724679303587</v>
+        <v>122.9724679303586</v>
       </c>
       <c r="O19" t="n">
         <v>113.5849778043852</v>
       </c>
       <c r="P19" t="n">
-        <v>97.19157092291867</v>
+        <v>97.19157092291864</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.29040587575197</v>
+        <v>67.29040587575196</v>
       </c>
       <c r="R19" t="n">
         <v>36.13270518526426</v>
@@ -32423,7 +32423,7 @@
         <v>14.00452807119927</v>
       </c>
       <c r="T19" t="n">
-        <v>3.433556699772383</v>
+        <v>3.433556699772382</v>
       </c>
       <c r="U19" t="n">
         <v>0.04383263872049856</v>
@@ -32475,22 +32475,22 @@
         <v>152.0500272407629</v>
       </c>
       <c r="K20" t="n">
-        <v>227.8835759304519</v>
+        <v>227.8835759304518</v>
       </c>
       <c r="L20" t="n">
         <v>282.7097267859224</v>
       </c>
       <c r="M20" t="n">
-        <v>314.5690433819597</v>
+        <v>314.5690433819596</v>
       </c>
       <c r="N20" t="n">
         <v>319.6590993756894</v>
       </c>
       <c r="O20" t="n">
-        <v>301.8450230755927</v>
+        <v>301.8450230755926</v>
       </c>
       <c r="P20" t="n">
-        <v>257.6177437635989</v>
+        <v>257.6177437635988</v>
       </c>
       <c r="Q20" t="n">
         <v>193.4601968122762</v>
@@ -32502,7 +32502,7 @@
         <v>40.82345832190617</v>
       </c>
       <c r="T20" t="n">
-        <v>7.84222441268872</v>
+        <v>7.842224412688719</v>
       </c>
       <c r="U20" t="n">
         <v>0.143318778530005</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9585288354161845</v>
+        <v>0.9585288354161844</v>
       </c>
       <c r="H21" t="n">
-        <v>9.257370594677363</v>
+        <v>9.257370594677361</v>
       </c>
       <c r="I21" t="n">
         <v>33.00197964042565</v>
       </c>
       <c r="J21" t="n">
-        <v>90.55995457763173</v>
+        <v>90.55995457763171</v>
       </c>
       <c r="K21" t="n">
         <v>154.7813865505161</v>
@@ -32566,16 +32566,16 @@
         <v>249.2973746111593</v>
       </c>
       <c r="O21" t="n">
-        <v>228.0583935737797</v>
+        <v>228.0583935737796</v>
       </c>
       <c r="P21" t="n">
         <v>183.0369668260958</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.3553650261081</v>
+        <v>122.355365026108</v>
       </c>
       <c r="R21" t="n">
-        <v>59.51286927259436</v>
+        <v>59.51286927259435</v>
       </c>
       <c r="S21" t="n">
         <v>17.80425271047166</v>
@@ -32584,7 +32584,7 @@
         <v>3.863543858541549</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06306110759317006</v>
+        <v>0.06306110759317005</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8035983765424727</v>
+        <v>0.8035983765424726</v>
       </c>
       <c r="H22" t="n">
-        <v>7.144720111441262</v>
+        <v>7.144720111441261</v>
       </c>
       <c r="I22" t="n">
-        <v>24.16639481456819</v>
+        <v>24.16639481456818</v>
       </c>
       <c r="J22" t="n">
-        <v>56.81440522155282</v>
+        <v>56.81440522155281</v>
       </c>
       <c r="K22" t="n">
-        <v>93.36352047466181</v>
+        <v>93.3635204746618</v>
       </c>
       <c r="L22" t="n">
-        <v>119.4731622725055</v>
+        <v>119.4731622725054</v>
       </c>
       <c r="M22" t="n">
         <v>125.9676982429259</v>
       </c>
       <c r="N22" t="n">
-        <v>122.9724679303587</v>
+        <v>122.9724679303586</v>
       </c>
       <c r="O22" t="n">
         <v>113.5849778043852</v>
       </c>
       <c r="P22" t="n">
-        <v>97.19157092291866</v>
+        <v>97.19157092291864</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.29040587575197</v>
+        <v>67.29040587575196</v>
       </c>
       <c r="R22" t="n">
         <v>36.13270518526426</v>
@@ -32660,7 +32660,7 @@
         <v>14.00452807119927</v>
       </c>
       <c r="T22" t="n">
-        <v>3.433556699772383</v>
+        <v>3.433556699772382</v>
       </c>
       <c r="U22" t="n">
         <v>0.04383263872049856</v>
@@ -33678,7 +33678,7 @@
         <v>258.2261280032061</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.9170680394381</v>
+        <v>193.9170680394379</v>
       </c>
       <c r="R35" t="n">
         <v>112.8001113563435</v>
@@ -34368,7 +34368,7 @@
         <v>69.22932032818633</v>
       </c>
       <c r="J44" t="n">
-        <v>152.4091051476409</v>
+        <v>152.4091051476404</v>
       </c>
       <c r="K44" t="n">
         <v>228.4217406315163</v>
@@ -34389,7 +34389,7 @@
         <v>258.2261280032061</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9170680394379</v>
+        <v>193.9170680394375</v>
       </c>
       <c r="R44" t="n">
         <v>112.8001113563435</v>
@@ -34944,10 +34944,10 @@
         <v>13.00189373225163</v>
       </c>
       <c r="M5" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="N5" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="O5" t="n">
         <v>31.45315924020738</v>
@@ -35023,16 +35023,16 @@
         <v>38.01723705915435</v>
       </c>
       <c r="M6" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="N6" t="n">
-        <v>17.67792863436363</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="O6" t="n">
-        <v>40.45844320953879</v>
+        <v>40.45844320953876</v>
       </c>
       <c r="P6" t="n">
-        <v>23.58703615143681</v>
+        <v>0.8065215762616335</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.30144634887151</v>
+        <v>11.30144634887145</v>
       </c>
       <c r="L8" t="n">
-        <v>44.30598041638024</v>
+        <v>44.30598041638018</v>
       </c>
       <c r="M8" t="n">
-        <v>75.2902712973958</v>
+        <v>75.29027129739575</v>
       </c>
       <c r="N8" t="n">
-        <v>75.29027129739586</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="O8" t="n">
-        <v>64.87607282353184</v>
+        <v>64.87607282353176</v>
       </c>
       <c r="P8" t="n">
-        <v>27.05501184247709</v>
+        <v>27.05501184247703</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>17.13874508936155</v>
+        <v>17.13874508936149</v>
       </c>
       <c r="L9" t="n">
-        <v>12.13442783469976</v>
+        <v>61.06239488431234</v>
       </c>
       <c r="M9" t="n">
-        <v>75.29027129739586</v>
+        <v>75.29027129739572</v>
       </c>
       <c r="N9" t="n">
-        <v>75.29027129739586</v>
+        <v>70.21678977588337</v>
       </c>
       <c r="O9" t="n">
-        <v>74.41085297909891</v>
+        <v>74.41085297909885</v>
       </c>
       <c r="P9" t="n">
-        <v>43.8544855281004</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.950229812830258</v>
+        <v>4.950229812830202</v>
       </c>
       <c r="K11" t="n">
-        <v>49.06057195640514</v>
+        <v>49.06057195640506</v>
       </c>
       <c r="L11" t="n">
-        <v>91.14951462280783</v>
+        <v>91.14951462280771</v>
       </c>
       <c r="M11" t="n">
-        <v>127.4127288848006</v>
+        <v>127.4127288848005</v>
       </c>
       <c r="N11" t="n">
-        <v>133.2609852034593</v>
+        <v>133.2609852034591</v>
       </c>
       <c r="O11" t="n">
-        <v>114.8902262954722</v>
+        <v>114.8902262954721</v>
       </c>
       <c r="P11" t="n">
-        <v>69.74093471244237</v>
+        <v>69.74093471244225</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.836823789286</v>
+        <v>12.83682378928592</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.78521738384941</v>
+        <v>42.78521738384936</v>
       </c>
       <c r="L12" t="n">
-        <v>95.54724185551106</v>
+        <v>95.547241855511</v>
       </c>
       <c r="M12" t="n">
-        <v>127.3854431488556</v>
+        <v>127.3854431488555</v>
       </c>
       <c r="N12" t="n">
-        <v>142.582233543451</v>
+        <v>142.5822335434509</v>
       </c>
       <c r="O12" t="n">
         <v>112.1989449626685</v>
       </c>
       <c r="P12" t="n">
-        <v>74.18276080195248</v>
+        <v>74.18276080195243</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.620173581215568</v>
+        <v>8.620173581215511</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>9.879362793999363</v>
+        <v>9.87936279399932</v>
       </c>
       <c r="M13" t="n">
-        <v>13.09049878549685</v>
+        <v>13.09049878549681</v>
       </c>
       <c r="N13" t="n">
-        <v>19.2279630523567</v>
+        <v>19.22796305235664</v>
       </c>
       <c r="O13" t="n">
-        <v>1.08904031226291</v>
+        <v>1.089040312262867</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.950229812830315</v>
+        <v>4.95022981283023</v>
       </c>
       <c r="K14" t="n">
-        <v>49.06057195640523</v>
+        <v>49.06057195640511</v>
       </c>
       <c r="L14" t="n">
-        <v>91.14951462280794</v>
+        <v>91.14951462280783</v>
       </c>
       <c r="M14" t="n">
-        <v>127.4127288848007</v>
+        <v>127.4127288848005</v>
       </c>
       <c r="N14" t="n">
-        <v>133.2609852034594</v>
+        <v>133.2609852034593</v>
       </c>
       <c r="O14" t="n">
-        <v>114.8902262954723</v>
+        <v>114.8902262954722</v>
       </c>
       <c r="P14" t="n">
-        <v>69.74093471244248</v>
+        <v>69.74093471244231</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.83682378928606</v>
+        <v>12.83682378928597</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.78521738384947</v>
+        <v>42.78521738384939</v>
       </c>
       <c r="L15" t="n">
-        <v>95.54724185551115</v>
+        <v>95.54724185551103</v>
       </c>
       <c r="M15" t="n">
-        <v>127.3854431488557</v>
+        <v>127.3854431488556</v>
       </c>
       <c r="N15" t="n">
-        <v>142.5822335434511</v>
+        <v>142.582233543451</v>
       </c>
       <c r="O15" t="n">
-        <v>112.1989449626686</v>
+        <v>112.1989449626685</v>
       </c>
       <c r="P15" t="n">
-        <v>74.18276080195257</v>
+        <v>74.18276080195245</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.62017358121561</v>
+        <v>8.620173581215553</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>9.879362793999405</v>
+        <v>9.879362793999348</v>
       </c>
       <c r="M16" t="n">
-        <v>13.09049878549691</v>
+        <v>13.09049878549683</v>
       </c>
       <c r="N16" t="n">
-        <v>19.22796305235674</v>
+        <v>19.22796305235667</v>
       </c>
       <c r="O16" t="n">
-        <v>1.089040312262952</v>
+        <v>1.089040312262895</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.950229812830258</v>
+        <v>4.95022981283023</v>
       </c>
       <c r="K17" t="n">
-        <v>49.06057195640517</v>
+        <v>49.06057195640511</v>
       </c>
       <c r="L17" t="n">
-        <v>91.14951462280789</v>
+        <v>91.14951462280783</v>
       </c>
       <c r="M17" t="n">
-        <v>127.4127288848006</v>
+        <v>127.4127288848005</v>
       </c>
       <c r="N17" t="n">
         <v>133.2609852034593</v>
@@ -35901,10 +35901,10 @@
         <v>114.8902262954722</v>
       </c>
       <c r="P17" t="n">
-        <v>69.74093471244242</v>
+        <v>69.74093471244231</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.83682378928603</v>
+        <v>12.83682378928597</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.78521738384944</v>
+        <v>42.78521738384939</v>
       </c>
       <c r="L18" t="n">
-        <v>95.54724185551109</v>
+        <v>95.54724185551103</v>
       </c>
       <c r="M18" t="n">
         <v>127.3854431488556</v>
       </c>
       <c r="N18" t="n">
-        <v>142.5822335434511</v>
+        <v>142.582233543451</v>
       </c>
       <c r="O18" t="n">
-        <v>112.1989449626686</v>
+        <v>112.1989449626685</v>
       </c>
       <c r="P18" t="n">
-        <v>74.18276080195251</v>
+        <v>74.18276080195245</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.620173581215582</v>
+        <v>8.620173581215553</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>9.879362793999377</v>
+        <v>9.879362793999348</v>
       </c>
       <c r="M19" t="n">
-        <v>13.09049878549686</v>
+        <v>13.09049878549683</v>
       </c>
       <c r="N19" t="n">
-        <v>19.22796305235671</v>
+        <v>19.22796305235667</v>
       </c>
       <c r="O19" t="n">
-        <v>1.089040312262924</v>
+        <v>1.089040312262895</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.950229812830258</v>
+        <v>4.95022981283023</v>
       </c>
       <c r="K20" t="n">
-        <v>49.06057195640514</v>
+        <v>49.06057195640511</v>
       </c>
       <c r="L20" t="n">
         <v>91.14951462280783</v>
       </c>
       <c r="M20" t="n">
-        <v>127.4127288848006</v>
+        <v>127.4127288848005</v>
       </c>
       <c r="N20" t="n">
         <v>133.2609852034593</v>
@@ -36138,10 +36138,10 @@
         <v>114.8902262954722</v>
       </c>
       <c r="P20" t="n">
-        <v>69.74093471244237</v>
+        <v>69.74093471244231</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.836823789286</v>
+        <v>12.83682378928597</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>42.78521738384941</v>
+        <v>42.78521738384939</v>
       </c>
       <c r="L21" t="n">
-        <v>95.54724185551106</v>
+        <v>95.54724185551103</v>
       </c>
       <c r="M21" t="n">
         <v>127.3854431488556</v>
@@ -36217,10 +36217,10 @@
         <v>112.1989449626685</v>
       </c>
       <c r="P21" t="n">
-        <v>74.18276080195248</v>
+        <v>74.18276080195245</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.620173581215568</v>
+        <v>8.620173581215553</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>9.879362793999363</v>
+        <v>9.879362793999348</v>
       </c>
       <c r="M22" t="n">
-        <v>13.09049878549685</v>
+        <v>13.09049878549683</v>
       </c>
       <c r="N22" t="n">
-        <v>19.2279630523567</v>
+        <v>19.22796305235667</v>
       </c>
       <c r="O22" t="n">
-        <v>1.08904031226291</v>
+        <v>1.089040312262895</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>70.3493189520496</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.29369501644787</v>
+        <v>13.29369501644769</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.30930771970827</v>
+        <v>5.309307719707732</v>
       </c>
       <c r="K44" t="n">
         <v>49.59873665746957</v>
@@ -38037,7 +38037,7 @@
         <v>70.3493189520496</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.29369501644769</v>
+        <v>13.2936950164473</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
